--- a/src/com/company/Stage2/results.xlsx
+++ b/src/com/company/Stage2/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shovhannisya\Desktop\AUA\SEM 7\Image Processing\CS260\src\com\company\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2834D2-8BCE-4AE5-A08C-E8FCCC0C642F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E5700-B771-4C19-94DF-D4A111D8BB4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -212,6 +212,3309 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>67 A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$A$3:$A$258</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0683760683760601E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2051282051281997E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4102564102564103E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0299145299145299E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5085470085470001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.1837606837606799E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.3226495726495698E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.65064102564102E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.8771367521367499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5.2638888888888798E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>6.5918803418803407E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.9177350427350399E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9.1025641025640994E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.10091880341880299</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.10926282051282001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.116720085470085</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.123119658119658</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.12900641025640999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.13400641025641</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.13823717948717901</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.14191239316239301</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.14508547008546999</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.14774572649572601</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.15012820512820499</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.152361111111111</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.154252136752136</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.15607905982905901</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.15769230769230699</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.15901709401709399</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.16048076923076901</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.1621047008547</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.163215811965811</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.16441239316239301</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.16548076923076899</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.166495726495726</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.16791666666666599</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.169102564102564</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.17064102564102501</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.17200854700854701</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.173418803418803</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.174807692307692</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.176089743589743</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.17748931623931599</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.17881410256410199</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.18017094017094001</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.18139957264957199</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.18277777777777701</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.184305555555555</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.18583333333333299</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.18722222222222201</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.188760683760683</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.19039529914529901</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.19215811965811899</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.19377136752136701</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.19554487179487101</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.197136752136752</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.199038461538461</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.2008547008547</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.202863247863247</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.204636752136752</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.20642094017094001</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.208589743589743</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.21066239316239299</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.21290598290598201</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>0.214935897435897</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0.216880341880341</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>0.219294871794871</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.22158119658119599</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.22373931623931601</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.22628205128205101</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.22861111111111099</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.23100427350427299</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.233397435897435</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.236004273504273</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>0.238632478632478</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.24130341880341799</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>0.24410256410256401</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.24660256410256401</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.24951923076922999</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.25246794871794798</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0.25570512820512797</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>0.25850427350427302</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.26173076923076899</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.26483974358974299</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>0.26808760683760602</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0.27135683760683699</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>0.27467948717948698</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.27791666666666598</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.28158119658119601</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.285160256410256</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.288814102564102</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.29214743589743503</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.29584401709401698</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.29973290598290597</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.30404914529914501</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.30797008547008498</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.31226495726495701</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.31662393162393099</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.321367521367521</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.32628205128205101</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.33074786324786298</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.33508547008547002</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.34008547008547002</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.34478632478632398</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.35045940170940099</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.35607905982905902</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.36114316239316202</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.366175213675213</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.371282051282051</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.37684829059829</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.38295940170940101</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.38858974358974302</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.39434829059829002</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>0.40014957264957202</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>0.406143162393162</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>0.41230769230769199</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>0.41830128205128198</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>0.424829059829059</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>0.431132478632478</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>0.43782051282051199</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>0.44503205128205098</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>0.45331196581196498</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>0.46214743589743501</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>0.47145299145299102</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>0.48162393162393102</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>0.49139957264957201</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>0.50177350427350398</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>0.51193376068375995</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>0.52180555555555497</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>0.53182692307692303</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>0.54205128205128195</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>0.55158119658119598</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>0.561153846153846</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>0.57051282051282004</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0.57932692307692302</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>0.58832264957264901</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>0.59704059829059797</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>0.60443376068375998</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>0.61210470085470003</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>0.62049145299145303</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>0.62922008547008501</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>0.63824786324786298</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>0.64701923076922996</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>0.65603632478632401</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>0.66491452991452904</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>0.67360042735042702</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>0.68236111111111097</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>0.69111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>0.70065170940170896</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>0.71112179487179406</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>0.721923076923076</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>0.733397435897435</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>0.74502136752136705</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>0.75723290598290505</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>0.76902777777777698</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>0.78030982905982904</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>0.79013888888888795</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>0.79885683760683701</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>0.80755341880341802</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>0.81658119658119599</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>0.82574786324786298</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>0.83420940170940105</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>0.84216880341880296</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>0.85052350427350398</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>0.85742521367521296</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>0.86316239316239296</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>0.86821581196581199</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>0.87227564102564104</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>0.87530982905982901</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>0.87800213675213601</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>0.88129273504273498</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>0.884561965811965</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>0.88850427350427297</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>0.89272435897435898</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>0.89694444444444399</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>0.90075854700854696</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>0.90446581196581199</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>0.90792735042734996</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>0.91125</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>0.91464743589743502</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>0.91761752136752095</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>0.920245726495726</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>0.92305555555555496</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>0.92615384615384599</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>0.93134615384615305</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>0.93864316239316203</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>0.94772435897435903</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>0.95711538461538403</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>0.96565170940170897</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>0.97184829059829003</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>0.97647435897435897</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>0.98092948717948703</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>0.98634615384615298</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>0.99176282051282005</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>0.99599358974358898</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>0.99836538461538404</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>0.99949786324786305</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>0.99978632478632401</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="General">
+                  <c:v>0.99989316239316195</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="General">
+                  <c:v>0.99997863247863195</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="General">
+                  <c:v>0.99998931623931597</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$B$3:$B$258</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>2.13675213675213E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06837606837606E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2435897435897401E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4871794871794801E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2264957264957203E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.8910256410256401E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.6474358974358896E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.0598290598290599E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.9123931623931601E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.0299145299145298E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.3044871794871702E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5.7617521367521303E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>7.2275641025641005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>8.7457264957264899E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.10088675213675199</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.11242521367521301</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.122446581196581</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.13159188034187999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.140224358974358</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.147863247863247</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.15483974358974301</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.161314102564102</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.16680555555555501</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.17195512820512801</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.17624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.18027777777777701</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.184241452991453</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.18774572649572599</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.19101495726495701</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.19466880341880299</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.198311965811965</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.202072649572649</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.205886752136752</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.209188034188034</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.21271367521367501</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.21666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.22112179487179401</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.225192307692307</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.22883547008547001</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.23311965811965801</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.237307692307692</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.24086538461538401</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.244957264957264</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.24860042735042701</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.25226495726495701</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.25613247863247801</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.26424145299145302</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.26826923076922998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.27287393162393098</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.276901709401709</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.28139957264957199</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.28517094017094002</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.28947649572649498</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.29403846153846103</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.298589743589743</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.30278846153846101</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.30755341880341802</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.312521367521367</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.31833333333333302</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.32283119658119602</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.32731837606837599</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.33165598290598203</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.33624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.340641025641025</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.345010683760683</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>0.34963675213675199</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0.35447649572649498</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.365523504273504</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.37114316239316197</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.376175213675213</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.38092948717948699</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.385299145299145</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.38992521367521299</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>0.40050213675213597</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.40612179487179401</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>0.41152777777777699</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.417200854700854</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.42261752136752101</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.42792735042734997</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0.43355769230769198</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>0.43990384615384598</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.446474358974359</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.45335470085469998</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>0.46081196581196499</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0.469423076923076</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>0.47855769230769202</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.488461538461538</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.49895299145299099</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.50933760683760598</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.51995726495726402</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.53099358974358901</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.54129273504273501</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.55168803418803403</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.56193376068376</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.57199786324786295</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.58238247863247805</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.59284188034188001</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.60207264957264905</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.61247863247863199</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.62214743589743504</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.63100427350427302</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.64043803418803402</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.65030982905982904</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.66095085470085402</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.67197649572649498</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.68332264957264899</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.69553418803418798</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.708664529914529</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.72163461538461504</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.73511752136752095</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.74669871794871701</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.75811965811965798</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>0.76766025641025604</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>0.776207264957265</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>0.78366452991452995</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>0.79144230769230695</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>0.797895299145299</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>0.80400641025640995</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>0.80944444444444397</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>0.81438034188034103</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>0.81869658119658095</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>0.82263888888888803</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>0.82558760683760601</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>0.82804487179487096</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>0.82956196581196495</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>0.831100427350427</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>0.83250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>0.83358974358974303</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>0.83435897435897399</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>0.83533119658119603</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>0.83594017094017004</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>0.83655982905982895</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>0.83737179487179403</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0.83801282051282</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>0.83884615384615302</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>0.839358974358974</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>0.839882478632478</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>0.84047008547008495</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>0.84115384615384603</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>0.84170940170940101</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>0.84237179487179403</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>0.84277777777777696</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>0.84333333333333305</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>0.84393162393162302</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>0.84451923076922997</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>0.84502136752136703</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>0.84551282051281995</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>0.84608974358974298</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>0.84655982905982896</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>0.84722222222222199</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>0.84790598290598296</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>0.84837606837606805</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>0.848963675213675</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>0.84987179487179398</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>0.85060897435897398</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>0.85126068376068298</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>0.85219017094017002</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>0.85311965811965795</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>0.85405982905982902</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>0.85537393162393105</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>0.85728632478632405</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>0.85942307692307696</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>0.86225427350427297</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>0.864914529914529</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>0.86784188034188003</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>0.87070512820512802</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>0.87345085470085404</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>0.87610042735042704</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>0.87922008547008501</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>0.88241452991452995</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>0.88634615384615301</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>0.89052350427350402</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>0.89448717948717904</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>0.89818376068376005</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>0.90154914529914498</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>0.90440170940170905</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>0.90732905982905898</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>0.91014957264957197</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>0.91295940170940104</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>0.91549145299145296</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>0.917638888888888</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>0.91938034188034101</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>0.92088675213675197</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>0.92230769230769205</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>0.92461538461538395</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>0.92831196581196496</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>0.93569444444444405</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>0.94719017094017099</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>0.959754273504273</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>0.969316239316239</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>0.97584401709401702</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>0.98101495726495702</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>0.98677350427350397</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>0.99244658119658102</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>0.99666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>0.99863247863247795</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>0.99950854700854697</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="General">
+                  <c:v>0.99979700854700804</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="General">
+                  <c:v>0.999914529914529</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="General">
+                  <c:v>0.99997863247863195</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="General">
+                  <c:v>0.99998931623931597</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$C$3:$C$258</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>5.3418803418803398E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.61538461538461E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4572649572649499E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1965811965811895E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.5170940170940101E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>4.4123931623931602E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.0010683760683699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.00213675213675E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.3824786324786298E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.9198717948717899E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.5715811965811902E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>8.3119658119658102E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>9.8344017094016994E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.11111111111111099</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.121837606837606</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.13245726495726401</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.14195512820512801</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.15022435897435801</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.15784188034187999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.16559829059829001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.17897435897435801</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.18583333333333299</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.19231837606837601</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.1983547008547</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.204775641025641</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.21088675213675201</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.216773504273504</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.22271367521367499</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.22862179487179399</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.234615384615384</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.24096153846153801</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.24694444444444399</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.25299145299145298</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.25939102564102501</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.26634615384615301</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.273055555555555</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.27972222222222198</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.28605769230769201</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.29249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.29944444444444401</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.30638888888888799</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.312564102564102</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.31932692307692301</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.32607905982905899</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.33311965811965799</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.34012820512820502</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.346923076923076</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.35332264957264897</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.359700854700854</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.36683760683760602</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.37414529914529898</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.38100427350427302</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.38788461538461499</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.40230769230769198</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.40981837606837601</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.41848290598290599</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.427350427350427</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.437564102564102</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.44909188034188002</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.46068376068375999</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.47292735042735001</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.48429487179487102</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.494807692307692</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.50492521367521304</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>0.51445512820512795</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0.52456196581196501</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>0.53435897435897395</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.54424145299145299</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.55379273504273496</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.56226495726495695</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.57034188034188005</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.57822649572649498</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.58600427350427298</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.59393162393162302</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>0.601965811965812</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.61040598290598203</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>0.61948717948717902</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.62912393162393099</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.63943376068376001</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.65051282051282</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0.66083333333333305</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>0.67180555555555499</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.68382478632478605</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.69549145299145299</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>0.70724358974358903</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0.71876068376068303</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>0.72902777777777705</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.73870726495726402</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.74779914529914504</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.75549145299145304</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.76226495726495702</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.76811965811965799</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.77345085470085395</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.77804487179487103</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.78267094017093997</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.78674145299145304</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.79053418803418796</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.79439102564102504</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.79743589743589705</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.79964743589743503</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.80115384615384599</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.80245726495726499</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.80327991452991399</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.804155982905982</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.804893162393162</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.80551282051282003</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.80595085470085404</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.80643162393162304</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.80689102564102499</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.80762820512820499</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>0.80861111111111095</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>0.80977564102564104</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>0.811196581196581</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>0.81308760683760595</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>0.814978632478632</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>0.81715811965811902</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>0.81932692307692301</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>0.82127136752136698</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>0.82257478632478598</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>0.82380341880341801</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>0.82507478632478604</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>0.82635683760683698</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>0.82786324786324705</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>0.82885683760683704</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>0.82995726495726496</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>0.830886752136752</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>0.83173076923076905</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>0.83262820512820501</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>0.83356837606837597</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>0.83429487179487105</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>0.83497863247863202</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>0.83587606837606798</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>0.83653846153846101</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>0.83724358974358903</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>0.83787393162393098</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>0.83837606837606804</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>0.83883547008546999</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>0.83926282051281997</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>0.83990384615384595</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>0.84044871794871701</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>0.84098290598290604</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>0.84139957264957199</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>0.84195512820512797</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>0.84239316239316198</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>0.84278846153846099</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>0.84339743589743499</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>0.84396367521367499</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>0.84443376068375997</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>0.845053418803418</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>0.84558760683760603</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>0.84620726495726495</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>0.84669871794871798</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>0.84723290598290601</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>0.84802350427350404</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>0.84876068376068303</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>0.84955128205128205</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>0.85017094017093997</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>0.85100427350427299</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>0.85179487179487101</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>0.85285256410256405</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>0.85410256410256402</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>0.85586538461538397</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>0.85759615384615295</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>0.85977564102564097</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>0.86194444444444396</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>0.864743589743589</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>0.86695512820512799</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>0.86883547008547002</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>0.87077991452991399</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>0.87316239316239297</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>0.87480769230769195</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>0.87650641025640996</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>0.878130341880341</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>0.88022435897435902</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>0.882735042735042</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>0.88607905982905899</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>0.88959401709401698</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>0.89367521367521296</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>0.89767094017093996</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>0.90159188034187998</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>0.90521367521367502</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>0.90844017094017004</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>0.91139957264957205</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>0.91411324786324699</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>0.91651709401709403</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>0.91883547008546995</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>0.92070512820512795</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>0.92254273504273498</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>0.92448717948717896</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>0.927329059829059</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>0.93151709401709404</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>0.938675213675213</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>0.94867521367521301</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>0.96002136752136702</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>0.96888888888888802</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>0.97501068376068301</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>0.98012820512820498</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>0.98542735042734997</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="General">
+                  <c:v>0.99084401709401704</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="General">
+                  <c:v>0.99529914529914498</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="General">
+                  <c:v>0.99810897435897405</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="General">
+                  <c:v>0.99938034188034097</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="General">
+                  <c:v>0.99971153846153804</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="General">
+                  <c:v>0.99982905982905901</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="General">
+                  <c:v>0.99993589743589695</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="General">
+                  <c:v>0.99998931623931597</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1730026367"/>
+        <c:axId val="2084434847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1730026367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2084434847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2084434847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730026367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535305</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163836</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CD5B56-CDCC-4F3A-A88F-166085520BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,8 +3783,8 @@
   <dimension ref="A1:X281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19651,6 +22954,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/src/com/company/Stage2/results.xlsx
+++ b/src/com/company/Stage2/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shovhannisya\Desktop\AUA\SEM 7\Image Processing\CS260\src\com\company\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E5700-B771-4C19-94DF-D4A111D8BB4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443E6D1-2690-42A2-8722-0FDE8E57DA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -197,6 +197,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,3309 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>67 A</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>r</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$A$3:$A$258</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0683760683760601E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2051282051281997E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4102564102564103E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0299145299145299E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5085470085470001E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.1837606837606799E-3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8.3226495726495698E-3</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>2.65064102564102E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.8771367521367499E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>5.2638888888888798E-2</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>6.5918803418803407E-2</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.9177350427350399E-2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>9.1025641025640994E-2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.10091880341880299</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>0.10926282051282001</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0.116720085470085</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0.123119658119658</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.12900641025640999</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.13400641025641</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.13823717948717901</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.14191239316239301</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.14508547008546999</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.14774572649572601</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.15012820512820499</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>0.152361111111111</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>0.154252136752136</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>0.15607905982905901</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0.15769230769230699</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>0.15901709401709399</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>0.16048076923076901</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0.1621047008547</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.163215811965811</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0.16441239316239301</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0.16548076923076899</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0.166495726495726</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.16791666666666599</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0.169102564102564</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.17064102564102501</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0.17200854700854701</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0.173418803418803</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.174807692307692</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.176089743589743</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.17748931623931599</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.17881410256410199</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.18017094017094001</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.18139957264957199</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.18277777777777701</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.184305555555555</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.18583333333333299</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>0.18722222222222201</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0.188760683760683</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>0.19039529914529901</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>0.19215811965811899</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>0.19377136752136701</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>0.19554487179487101</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>0.197136752136752</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>0.199038461538461</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>0.2008547008547</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>0.202863247863247</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>0.204636752136752</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>0.20642094017094001</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>0.208589743589743</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>0.21066239316239299</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>0.21290598290598201</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>0.214935897435897</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>0.216880341880341</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>0.219294871794871</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>0.22158119658119599</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>0.22373931623931601</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>0.22628205128205101</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>0.22861111111111099</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>0.23100427350427299</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>0.233397435897435</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>0.236004273504273</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>0.238632478632478</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>0.24130341880341799</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>0.24410256410256401</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>0.24660256410256401</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>0.24951923076922999</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0.25246794871794798</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>0.25570512820512797</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0.25850427350427302</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>0.26173076923076899</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>0.26483974358974299</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>0.26808760683760602</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>0.27135683760683699</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>0.27467948717948698</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>0.27791666666666598</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>0.28158119658119601</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>0.285160256410256</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0.288814102564102</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0.29214743589743503</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>0.29584401709401698</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0.29973290598290597</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0.30404914529914501</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>0.30797008547008498</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>0.31226495726495701</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>0.31662393162393099</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>0.321367521367521</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="General">
-                  <c:v>0.32628205128205101</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="General">
-                  <c:v>0.33074786324786298</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="General">
-                  <c:v>0.33508547008547002</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="General">
-                  <c:v>0.34008547008547002</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="General">
-                  <c:v>0.34478632478632398</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="General">
-                  <c:v>0.35045940170940099</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="General">
-                  <c:v>0.35607905982905902</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="General">
-                  <c:v>0.36114316239316202</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="General">
-                  <c:v>0.366175213675213</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="General">
-                  <c:v>0.371282051282051</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="General">
-                  <c:v>0.37684829059829</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="General">
-                  <c:v>0.38295940170940101</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="General">
-                  <c:v>0.38858974358974302</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="General">
-                  <c:v>0.39434829059829002</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="General">
-                  <c:v>0.40014957264957202</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="General">
-                  <c:v>0.406143162393162</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="General">
-                  <c:v>0.41230769230769199</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="General">
-                  <c:v>0.41830128205128198</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="General">
-                  <c:v>0.424829059829059</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="General">
-                  <c:v>0.431132478632478</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="General">
-                  <c:v>0.43782051282051199</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="General">
-                  <c:v>0.44503205128205098</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="General">
-                  <c:v>0.45331196581196498</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="General">
-                  <c:v>0.46214743589743501</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="General">
-                  <c:v>0.47145299145299102</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="General">
-                  <c:v>0.48162393162393102</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="General">
-                  <c:v>0.49139957264957201</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="General">
-                  <c:v>0.50177350427350398</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="General">
-                  <c:v>0.51193376068375995</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="General">
-                  <c:v>0.52180555555555497</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="General">
-                  <c:v>0.53182692307692303</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="General">
-                  <c:v>0.54205128205128195</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="General">
-                  <c:v>0.55158119658119598</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="General">
-                  <c:v>0.561153846153846</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="General">
-                  <c:v>0.57051282051282004</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="General">
-                  <c:v>0.57932692307692302</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="General">
-                  <c:v>0.58832264957264901</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="General">
-                  <c:v>0.59704059829059797</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="General">
-                  <c:v>0.60443376068375998</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="General">
-                  <c:v>0.61210470085470003</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="General">
-                  <c:v>0.62049145299145303</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="General">
-                  <c:v>0.62922008547008501</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="General">
-                  <c:v>0.63824786324786298</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="General">
-                  <c:v>0.64701923076922996</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="General">
-                  <c:v>0.65603632478632401</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="General">
-                  <c:v>0.66491452991452904</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="General">
-                  <c:v>0.67360042735042702</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="General">
-                  <c:v>0.68236111111111097</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="General">
-                  <c:v>0.69111111111111101</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="General">
-                  <c:v>0.70065170940170896</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="General">
-                  <c:v>0.71112179487179406</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="General">
-                  <c:v>0.721923076923076</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="General">
-                  <c:v>0.733397435897435</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="General">
-                  <c:v>0.74502136752136705</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="General">
-                  <c:v>0.75723290598290505</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="General">
-                  <c:v>0.76902777777777698</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="General">
-                  <c:v>0.78030982905982904</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="General">
-                  <c:v>0.79013888888888795</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="General">
-                  <c:v>0.79885683760683701</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="General">
-                  <c:v>0.80755341880341802</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="General">
-                  <c:v>0.81658119658119599</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="General">
-                  <c:v>0.82574786324786298</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="General">
-                  <c:v>0.83420940170940105</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="General">
-                  <c:v>0.84216880341880296</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="General">
-                  <c:v>0.85052350427350398</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="General">
-                  <c:v>0.85742521367521296</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="General">
-                  <c:v>0.86316239316239296</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="General">
-                  <c:v>0.86821581196581199</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="General">
-                  <c:v>0.87227564102564104</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="General">
-                  <c:v>0.87530982905982901</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="General">
-                  <c:v>0.87800213675213601</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="General">
-                  <c:v>0.88129273504273498</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="General">
-                  <c:v>0.884561965811965</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="General">
-                  <c:v>0.88850427350427297</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="General">
-                  <c:v>0.89272435897435898</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="General">
-                  <c:v>0.89694444444444399</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="General">
-                  <c:v>0.90075854700854696</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="General">
-                  <c:v>0.90446581196581199</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="General">
-                  <c:v>0.90792735042734996</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="General">
-                  <c:v>0.91125</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="General">
-                  <c:v>0.91464743589743502</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="General">
-                  <c:v>0.91761752136752095</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="General">
-                  <c:v>0.920245726495726</c:v>
-                </c:pt>
-                <c:pt idx="184" formatCode="General">
-                  <c:v>0.92305555555555496</c:v>
-                </c:pt>
-                <c:pt idx="185" formatCode="General">
-                  <c:v>0.92615384615384599</c:v>
-                </c:pt>
-                <c:pt idx="186" formatCode="General">
-                  <c:v>0.93134615384615305</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="General">
-                  <c:v>0.93864316239316203</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="General">
-                  <c:v>0.94772435897435903</c:v>
-                </c:pt>
-                <c:pt idx="189" formatCode="General">
-                  <c:v>0.95711538461538403</c:v>
-                </c:pt>
-                <c:pt idx="190" formatCode="General">
-                  <c:v>0.96565170940170897</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="General">
-                  <c:v>0.97184829059829003</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="General">
-                  <c:v>0.97647435897435897</c:v>
-                </c:pt>
-                <c:pt idx="193" formatCode="General">
-                  <c:v>0.98092948717948703</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="General">
-                  <c:v>0.98634615384615298</c:v>
-                </c:pt>
-                <c:pt idx="195" formatCode="General">
-                  <c:v>0.99176282051282005</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="General">
-                  <c:v>0.99599358974358898</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="General">
-                  <c:v>0.99836538461538404</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="General">
-                  <c:v>0.99949786324786305</c:v>
-                </c:pt>
-                <c:pt idx="199" formatCode="General">
-                  <c:v>0.99978632478632401</c:v>
-                </c:pt>
-                <c:pt idx="200" formatCode="General">
-                  <c:v>0.99989316239316195</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="General">
-                  <c:v>0.99997863247863195</c:v>
-                </c:pt>
-                <c:pt idx="202" formatCode="General">
-                  <c:v>0.99998931623931597</c:v>
-                </c:pt>
-                <c:pt idx="203" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="204" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="205" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="206" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="207" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="208" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="209" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="210" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="211" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="212" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="213" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="214" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="215" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="216" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="217" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="218" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="219" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="220" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="221" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="222" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="223" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="224" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="225" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="226" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="227" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="228" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="229" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="230" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="231" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="232" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="233" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="234" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="235" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="236" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="237" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="238" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="239" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="240" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="241" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="242" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="243" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="244" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="245" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="246" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="247" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="248" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="249" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="250" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="251" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="252" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="254" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="255" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>g</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$B$3:$B$258</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>2.13675213675213E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.06837606837606E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2435897435897401E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4871794871794801E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.2264957264957203E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1.8910256410256401E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>4.6474358974358896E-3</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.0598290598290599E-2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>1.9123931623931601E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.0299145299145298E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>4.3044871794871702E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>5.7617521367521303E-2</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>7.2275641025641005E-2</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>8.7457264957264899E-2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0.10088675213675199</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.11242521367521301</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>0.122446581196581</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0.13159188034187999</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0.140224358974358</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.147863247863247</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.15483974358974301</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.161314102564102</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.16680555555555501</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.17195512820512801</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.17624999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.18027777777777701</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>0.184241452991453</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>0.18774572649572599</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>0.19101495726495701</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0.19466880341880299</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>0.198311965811965</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>0.202072649572649</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0.205886752136752</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.209188034188034</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0.21271367521367501</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0.21666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0.22112179487179401</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.225192307692307</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0.22883547008547001</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.23311965811965801</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0.237307692307692</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0.24086538461538401</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.244957264957264</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.24860042735042701</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.25226495726495701</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.25613247863247801</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.26424145299145302</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.26826923076922998</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.27287393162393098</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.276901709401709</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>0.28139957264957199</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0.28517094017094002</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>0.28947649572649498</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>0.29403846153846103</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>0.298589743589743</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>0.30278846153846101</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>0.30755341880341802</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>0.312521367521367</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>0.31833333333333302</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>0.32283119658119602</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>0.32731837606837599</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>0.33165598290598203</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>0.33624999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>0.340641025641025</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>0.345010683760683</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>0.34963675213675199</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>0.35447649572649498</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>0.365523504273504</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>0.37114316239316197</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>0.376175213675213</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>0.38092948717948699</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>0.385299145299145</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>0.38992521367521299</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>0.39500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>0.40050213675213597</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>0.40612179487179401</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>0.41152777777777699</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>0.417200854700854</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>0.42261752136752101</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0.42792735042734997</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>0.43355769230769198</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0.43990384615384598</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>0.446474358974359</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>0.45335470085469998</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>0.46081196581196499</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>0.469423076923076</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>0.47855769230769202</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>0.488461538461538</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>0.49895299145299099</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>0.50933760683760598</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0.51995726495726402</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0.53099358974358901</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>0.54129273504273501</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0.55168803418803403</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0.56193376068376</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>0.57199786324786295</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>0.58238247863247805</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>0.59284188034188001</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>0.60207264957264905</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="General">
-                  <c:v>0.61247863247863199</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="General">
-                  <c:v>0.62214743589743504</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="General">
-                  <c:v>0.63100427350427302</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="General">
-                  <c:v>0.64043803418803402</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="General">
-                  <c:v>0.65030982905982904</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="General">
-                  <c:v>0.66095085470085402</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="General">
-                  <c:v>0.67197649572649498</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="General">
-                  <c:v>0.68332264957264899</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="General">
-                  <c:v>0.69553418803418798</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="General">
-                  <c:v>0.708664529914529</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="General">
-                  <c:v>0.72163461538461504</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="General">
-                  <c:v>0.73511752136752095</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="General">
-                  <c:v>0.74669871794871701</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="General">
-                  <c:v>0.75811965811965798</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="General">
-                  <c:v>0.76766025641025604</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="General">
-                  <c:v>0.776207264957265</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="General">
-                  <c:v>0.78366452991452995</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="General">
-                  <c:v>0.79144230769230695</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="General">
-                  <c:v>0.797895299145299</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="General">
-                  <c:v>0.80400641025640995</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="General">
-                  <c:v>0.80944444444444397</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="General">
-                  <c:v>0.81438034188034103</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="General">
-                  <c:v>0.81869658119658095</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="General">
-                  <c:v>0.82263888888888803</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="General">
-                  <c:v>0.82558760683760601</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="General">
-                  <c:v>0.82804487179487096</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="General">
-                  <c:v>0.82956196581196495</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="General">
-                  <c:v>0.831100427350427</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="General">
-                  <c:v>0.83250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="General">
-                  <c:v>0.83358974358974303</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="General">
-                  <c:v>0.83435897435897399</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="General">
-                  <c:v>0.83533119658119603</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="General">
-                  <c:v>0.83594017094017004</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="General">
-                  <c:v>0.83655982905982895</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="General">
-                  <c:v>0.83737179487179403</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="General">
-                  <c:v>0.83801282051282</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="General">
-                  <c:v>0.83884615384615302</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="General">
-                  <c:v>0.839358974358974</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="General">
-                  <c:v>0.839882478632478</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="General">
-                  <c:v>0.84047008547008495</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="General">
-                  <c:v>0.84115384615384603</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="General">
-                  <c:v>0.84170940170940101</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="General">
-                  <c:v>0.84237179487179403</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="General">
-                  <c:v>0.84277777777777696</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="General">
-                  <c:v>0.84333333333333305</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="General">
-                  <c:v>0.84393162393162302</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="General">
-                  <c:v>0.84451923076922997</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="General">
-                  <c:v>0.84502136752136703</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="General">
-                  <c:v>0.84551282051281995</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="General">
-                  <c:v>0.84608974358974298</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="General">
-                  <c:v>0.84655982905982896</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="General">
-                  <c:v>0.84722222222222199</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="General">
-                  <c:v>0.84790598290598296</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="General">
-                  <c:v>0.84837606837606805</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="General">
-                  <c:v>0.848963675213675</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="General">
-                  <c:v>0.84987179487179398</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="General">
-                  <c:v>0.85060897435897398</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="General">
-                  <c:v>0.85126068376068298</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="General">
-                  <c:v>0.85219017094017002</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="General">
-                  <c:v>0.85311965811965795</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="General">
-                  <c:v>0.85405982905982902</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="General">
-                  <c:v>0.85537393162393105</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="General">
-                  <c:v>0.85728632478632405</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="General">
-                  <c:v>0.85942307692307696</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="General">
-                  <c:v>0.86225427350427297</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="General">
-                  <c:v>0.864914529914529</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="General">
-                  <c:v>0.86784188034188003</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="General">
-                  <c:v>0.87070512820512802</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="General">
-                  <c:v>0.87345085470085404</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="General">
-                  <c:v>0.87610042735042704</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="General">
-                  <c:v>0.87922008547008501</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="General">
-                  <c:v>0.88241452991452995</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="General">
-                  <c:v>0.88634615384615301</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="General">
-                  <c:v>0.89052350427350402</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="General">
-                  <c:v>0.89448717948717904</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="General">
-                  <c:v>0.89818376068376005</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="General">
-                  <c:v>0.90154914529914498</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="General">
-                  <c:v>0.90440170940170905</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="General">
-                  <c:v>0.90732905982905898</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="General">
-                  <c:v>0.91014957264957197</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="General">
-                  <c:v>0.91295940170940104</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="General">
-                  <c:v>0.91549145299145296</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="General">
-                  <c:v>0.917638888888888</c:v>
-                </c:pt>
-                <c:pt idx="184" formatCode="General">
-                  <c:v>0.91938034188034101</c:v>
-                </c:pt>
-                <c:pt idx="185" formatCode="General">
-                  <c:v>0.92088675213675197</c:v>
-                </c:pt>
-                <c:pt idx="186" formatCode="General">
-                  <c:v>0.92230769230769205</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="General">
-                  <c:v>0.92461538461538395</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="General">
-                  <c:v>0.92831196581196496</c:v>
-                </c:pt>
-                <c:pt idx="189" formatCode="General">
-                  <c:v>0.93569444444444405</c:v>
-                </c:pt>
-                <c:pt idx="190" formatCode="General">
-                  <c:v>0.94719017094017099</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="General">
-                  <c:v>0.959754273504273</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="General">
-                  <c:v>0.969316239316239</c:v>
-                </c:pt>
-                <c:pt idx="193" formatCode="General">
-                  <c:v>0.97584401709401702</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="General">
-                  <c:v>0.98101495726495702</c:v>
-                </c:pt>
-                <c:pt idx="195" formatCode="General">
-                  <c:v>0.98677350427350397</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="General">
-                  <c:v>0.99244658119658102</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="General">
-                  <c:v>0.99666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="General">
-                  <c:v>0.99863247863247795</c:v>
-                </c:pt>
-                <c:pt idx="199" formatCode="General">
-                  <c:v>0.99950854700854697</c:v>
-                </c:pt>
-                <c:pt idx="200" formatCode="General">
-                  <c:v>0.99979700854700804</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="General">
-                  <c:v>0.999914529914529</c:v>
-                </c:pt>
-                <c:pt idx="202" formatCode="General">
-                  <c:v>0.99997863247863195</c:v>
-                </c:pt>
-                <c:pt idx="203" formatCode="General">
-                  <c:v>0.99998931623931597</c:v>
-                </c:pt>
-                <c:pt idx="204" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="205" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="206" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="207" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="208" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="209" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="210" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="211" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="212" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="213" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="214" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="215" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="216" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="217" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="218" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="219" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="220" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="221" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="222" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="223" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="224" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="225" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="226" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="227" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="228" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="229" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="230" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="231" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="232" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="233" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="234" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="235" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="236" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="237" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="238" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="239" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="240" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="241" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="242" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="243" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="244" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="245" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="246" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="247" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="248" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="249" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="250" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="251" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="252" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="254" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="255" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>b</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$C$3:$C$258</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="256"/>
-                <c:pt idx="0">
-                  <c:v>5.3418803418803398E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.61538461538461E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4572649572649499E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1965811965811895E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>1.5170940170940101E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>4.4123931623931602E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.0010683760683699E-2</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>2.00213675213675E-2</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.3824786324786298E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>4.9198717948717899E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.5715811965811902E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>8.3119658119658102E-2</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>9.8344017094016994E-2</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>0.11111111111111099</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>0.121837606837606</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>0.13245726495726401</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>0.14195512820512801</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0.15022435897435801</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>0.15784188034187999</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>0.16559829059829001</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.17249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>0.17897435897435801</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>0.18583333333333299</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>0.19231837606837601</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>0.1983547008547</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.204775641025641</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>0.21088675213675201</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>0.216773504273504</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>0.22271367521367499</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0.22862179487179399</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>0.234615384615384</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>0.24096153846153801</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0.24694444444444399</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.25299145299145298</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0.25939102564102501</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0.26634615384615301</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0.273055555555555</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.27972222222222198</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0.28605769230769201</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.29249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0.29944444444444401</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0.30638888888888799</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.312564102564102</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.31932692307692301</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.32607905982905899</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.33311965811965799</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.34012820512820502</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.346923076923076</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.35332264957264897</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.359700854700854</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.36683760683760602</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>0.37414529914529898</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0.38100427350427302</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>0.38788461538461499</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>0.39500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>0.40230769230769198</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>0.40981837606837601</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>0.41848290598290599</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>0.427350427350427</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>0.437564102564102</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>0.44909188034188002</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>0.46068376068375999</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>0.47292735042735001</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>0.48429487179487102</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>0.494807692307692</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>0.50492521367521304</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>0.51445512820512795</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>0.52456196581196501</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>0.53435897435897395</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>0.54424145299145299</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>0.55379273504273496</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>0.56226495726495695</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>0.57034188034188005</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>0.57822649572649498</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>0.58600427350427298</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>0.59393162393162302</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="General">
-                  <c:v>0.601965811965812</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>0.61040598290598203</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="General">
-                  <c:v>0.61948717948717902</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>0.62912393162393099</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>0.63943376068376001</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>0.65051282051282</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>0.66083333333333305</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>0.67180555555555499</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>0.68382478632478605</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>0.69549145299145299</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="General">
-                  <c:v>0.70724358974358903</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>0.71876068376068303</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>0.72902777777777705</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="General">
-                  <c:v>0.73870726495726402</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="General">
-                  <c:v>0.74779914529914504</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="General">
-                  <c:v>0.75549145299145304</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="General">
-                  <c:v>0.76226495726495702</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="General">
-                  <c:v>0.76811965811965799</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="General">
-                  <c:v>0.77345085470085395</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="General">
-                  <c:v>0.77804487179487103</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="General">
-                  <c:v>0.78267094017093997</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="General">
-                  <c:v>0.78674145299145304</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="General">
-                  <c:v>0.79053418803418796</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="General">
-                  <c:v>0.79439102564102504</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="General">
-                  <c:v>0.79743589743589705</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="General">
-                  <c:v>0.79964743589743503</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="General">
-                  <c:v>0.80115384615384599</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="General">
-                  <c:v>0.80245726495726499</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="General">
-                  <c:v>0.80327991452991399</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="General">
-                  <c:v>0.804155982905982</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="General">
-                  <c:v>0.804893162393162</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="General">
-                  <c:v>0.80551282051282003</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="General">
-                  <c:v>0.80595085470085404</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="General">
-                  <c:v>0.80643162393162304</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="General">
-                  <c:v>0.80689102564102499</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="General">
-                  <c:v>0.80762820512820499</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="General">
-                  <c:v>0.80861111111111095</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="General">
-                  <c:v>0.80977564102564104</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="General">
-                  <c:v>0.811196581196581</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="General">
-                  <c:v>0.81308760683760595</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="General">
-                  <c:v>0.814978632478632</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="General">
-                  <c:v>0.81715811965811902</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="General">
-                  <c:v>0.81932692307692301</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="General">
-                  <c:v>0.82127136752136698</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="General">
-                  <c:v>0.82257478632478598</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="General">
-                  <c:v>0.82380341880341801</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="General">
-                  <c:v>0.82507478632478604</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="General">
-                  <c:v>0.82635683760683698</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="General">
-                  <c:v>0.82786324786324705</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="General">
-                  <c:v>0.82885683760683704</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="General">
-                  <c:v>0.82995726495726496</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="General">
-                  <c:v>0.830886752136752</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="General">
-                  <c:v>0.83173076923076905</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="General">
-                  <c:v>0.83262820512820501</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="General">
-                  <c:v>0.83356837606837597</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="General">
-                  <c:v>0.83429487179487105</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="General">
-                  <c:v>0.83497863247863202</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="General">
-                  <c:v>0.83587606837606798</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="General">
-                  <c:v>0.83653846153846101</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="General">
-                  <c:v>0.83724358974358903</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="General">
-                  <c:v>0.83787393162393098</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="General">
-                  <c:v>0.83837606837606804</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="General">
-                  <c:v>0.83883547008546999</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="General">
-                  <c:v>0.83926282051281997</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="General">
-                  <c:v>0.83990384615384595</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="General">
-                  <c:v>0.84044871794871701</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="General">
-                  <c:v>0.84098290598290604</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="General">
-                  <c:v>0.84139957264957199</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="General">
-                  <c:v>0.84195512820512797</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="General">
-                  <c:v>0.84239316239316198</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="General">
-                  <c:v>0.84278846153846099</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="General">
-                  <c:v>0.84339743589743499</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="General">
-                  <c:v>0.84396367521367499</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="General">
-                  <c:v>0.84443376068375997</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="General">
-                  <c:v>0.845053418803418</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="General">
-                  <c:v>0.84558760683760603</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="General">
-                  <c:v>0.84620726495726495</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="General">
-                  <c:v>0.84669871794871798</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="General">
-                  <c:v>0.84723290598290601</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="General">
-                  <c:v>0.84802350427350404</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="General">
-                  <c:v>0.84876068376068303</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="General">
-                  <c:v>0.84955128205128205</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="General">
-                  <c:v>0.85017094017093997</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="General">
-                  <c:v>0.85100427350427299</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="General">
-                  <c:v>0.85179487179487101</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="General">
-                  <c:v>0.85285256410256405</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="General">
-                  <c:v>0.85410256410256402</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="General">
-                  <c:v>0.85586538461538397</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="General">
-                  <c:v>0.85759615384615295</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="General">
-                  <c:v>0.85977564102564097</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="General">
-                  <c:v>0.86194444444444396</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="General">
-                  <c:v>0.864743589743589</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="General">
-                  <c:v>0.86695512820512799</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="General">
-                  <c:v>0.86883547008547002</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="General">
-                  <c:v>0.87077991452991399</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="General">
-                  <c:v>0.87316239316239297</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="General">
-                  <c:v>0.87480769230769195</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="General">
-                  <c:v>0.87650641025640996</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="General">
-                  <c:v>0.878130341880341</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="General">
-                  <c:v>0.88022435897435902</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="General">
-                  <c:v>0.882735042735042</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="General">
-                  <c:v>0.88607905982905899</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="General">
-                  <c:v>0.88959401709401698</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="General">
-                  <c:v>0.89367521367521296</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="General">
-                  <c:v>0.89767094017093996</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="General">
-                  <c:v>0.90159188034187998</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="General">
-                  <c:v>0.90521367521367502</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="General">
-                  <c:v>0.90844017094017004</c:v>
-                </c:pt>
-                <c:pt idx="184" formatCode="General">
-                  <c:v>0.91139957264957205</c:v>
-                </c:pt>
-                <c:pt idx="185" formatCode="General">
-                  <c:v>0.91411324786324699</c:v>
-                </c:pt>
-                <c:pt idx="186" formatCode="General">
-                  <c:v>0.91651709401709403</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="General">
-                  <c:v>0.91883547008546995</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="General">
-                  <c:v>0.92070512820512795</c:v>
-                </c:pt>
-                <c:pt idx="189" formatCode="General">
-                  <c:v>0.92254273504273498</c:v>
-                </c:pt>
-                <c:pt idx="190" formatCode="General">
-                  <c:v>0.92448717948717896</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="General">
-                  <c:v>0.927329059829059</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="General">
-                  <c:v>0.93151709401709404</c:v>
-                </c:pt>
-                <c:pt idx="193" formatCode="General">
-                  <c:v>0.938675213675213</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="General">
-                  <c:v>0.94867521367521301</c:v>
-                </c:pt>
-                <c:pt idx="195" formatCode="General">
-                  <c:v>0.96002136752136702</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="General">
-                  <c:v>0.96888888888888802</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="General">
-                  <c:v>0.97501068376068301</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="General">
-                  <c:v>0.98012820512820498</c:v>
-                </c:pt>
-                <c:pt idx="199" formatCode="General">
-                  <c:v>0.98542735042734997</c:v>
-                </c:pt>
-                <c:pt idx="200" formatCode="General">
-                  <c:v>0.99084401709401704</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="General">
-                  <c:v>0.99529914529914498</c:v>
-                </c:pt>
-                <c:pt idx="202" formatCode="General">
-                  <c:v>0.99810897435897405</c:v>
-                </c:pt>
-                <c:pt idx="203" formatCode="General">
-                  <c:v>0.99938034188034097</c:v>
-                </c:pt>
-                <c:pt idx="204" formatCode="General">
-                  <c:v>0.99971153846153804</c:v>
-                </c:pt>
-                <c:pt idx="205" formatCode="General">
-                  <c:v>0.99982905982905901</c:v>
-                </c:pt>
-                <c:pt idx="206" formatCode="General">
-                  <c:v>0.99993589743589695</c:v>
-                </c:pt>
-                <c:pt idx="207" formatCode="General">
-                  <c:v>0.99998931623931597</c:v>
-                </c:pt>
-                <c:pt idx="208" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="209" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="210" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="211" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="212" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="213" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="214" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="215" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="216" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="217" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="218" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="219" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="220" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="221" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="222" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="223" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="224" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="225" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="226" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="227" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="228" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="229" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="230" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="231" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="232" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="233" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="234" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="235" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="236" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="237" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="238" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="239" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="240" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="241" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="242" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="243" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="244" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="245" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="246" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="247" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="248" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="249" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="250" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="251" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="252" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="254" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="255" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1A2F-4C41-B1BC-C3ED0D51D52E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1730026367"/>
-        <c:axId val="2084434847"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1730026367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2084434847"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2084434847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1730026367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>535305</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163836</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CD5B56-CDCC-4F3A-A88F-166085520BA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3783,8 +486,8 @@
   <dimension ref="A1:X281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3922,7 +625,7 @@
         <v>3.2051282051281997E-5</v>
       </c>
       <c r="F3" s="6">
-        <v>3.2051282051281997E-5</v>
+        <v>1.0683760683760601E-5</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -3930,8 +633,8 @@
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <v>1.0683760683760684E-5</v>
+      <c r="I3" s="15">
+        <v>1.0683760683760601E-5</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
@@ -3996,7 +699,7 @@
         <v>8.5470085470085402E-5</v>
       </c>
       <c r="F4" s="6">
-        <v>8.5470085470085402E-5</v>
+        <v>5.3418803418803398E-5</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -4004,8 +707,8 @@
       <c r="H4" s="12">
         <v>0</v>
       </c>
-      <c r="I4" s="13">
-        <v>3.2051282051282051E-5</v>
+      <c r="I4" s="16">
+        <v>3.2051282051281997E-5</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -4070,16 +773,16 @@
         <v>1.3888888888888799E-4</v>
       </c>
       <c r="F5" s="6">
-        <v>1.3888888888888799E-4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.0683760683760684E-5</v>
+        <v>1.1752136752136701E-4</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1.0683760683760601E-5</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="10">
-        <v>5.3418803418803419E-5</v>
+      <c r="I5" s="15">
+        <v>5.3418803418803398E-5</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -4144,16 +847,16 @@
         <v>2.13675213675213E-4</v>
       </c>
       <c r="F6" s="6">
-        <v>2.13675213675213E-4</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.0683760683760684E-5</v>
+        <v>4.7008547008546998E-4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1.0683760683760601E-5</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="13">
-        <v>1.3888888888888889E-4</v>
+      <c r="I6" s="16">
+        <v>1.3888888888888799E-4</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
@@ -4218,16 +921,16 @@
         <v>4.0598290598290598E-4</v>
       </c>
       <c r="F7" s="6">
-        <v>4.0598290598290598E-4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2.1367521367521368E-5</v>
+        <v>1.3675213675213599E-3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2.13675213675213E-5</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="10">
-        <v>4.7008547008547009E-4</v>
+      <c r="I7" s="15">
+        <v>4.7008547008546998E-4</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -4292,16 +995,16 @@
         <v>1.2713675213675199E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>1.2713675213675199E-3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5.3418803418803419E-5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.0683760683760684E-5</v>
+        <v>3.9529914529914502E-3</v>
+      </c>
+      <c r="G8" s="18">
+        <v>5.3418803418803398E-5</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1.0683760683760601E-5</v>
       </c>
       <c r="I8" s="13">
-        <v>1.7414529914529914E-3</v>
+        <v>1.7414529914529899E-3</v>
       </c>
       <c r="J8" s="6">
         <v>6.4102564102564103E-5</v>
@@ -4366,16 +1069,16 @@
         <v>3.7072649572649501E-3</v>
       </c>
       <c r="F9" s="5">
-        <v>3.7072649572649501E-3</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4.9145299145299151E-4</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.6025641025641026E-4</v>
+        <v>9.6260683760683707E-3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>4.9145299145299096E-4</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1.6025641025641001E-4</v>
       </c>
       <c r="I9" s="10">
-        <v>4.5405982905982909E-3</v>
+        <v>4.5405982905982901E-3</v>
       </c>
       <c r="J9" s="6">
         <v>5.9829059829059796E-4</v>
@@ -4440,16 +1143,16 @@
         <v>8.5470085470085392E-3</v>
       </c>
       <c r="F10" s="5">
-        <v>8.5470085470085392E-3</v>
+        <v>1.9380341880341798E-2</v>
       </c>
       <c r="G10" s="11">
-        <v>1.8696581196581197E-3</v>
-      </c>
-      <c r="H10" s="12">
-        <v>9.0811965811965815E-4</v>
+        <v>1.86965811965811E-3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>9.0811965811965804E-4</v>
       </c>
       <c r="I10" s="13">
-        <v>1.1047008547008547E-2</v>
+        <v>1.10470085470085E-2</v>
       </c>
       <c r="J10" s="5">
         <v>2.1260683760683701E-3</v>
@@ -4514,16 +1217,16 @@
         <v>1.63888888888888E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>1.63888888888888E-2</v>
+        <v>3.3579059829059801E-2</v>
       </c>
       <c r="G11" s="8">
-        <v>4.6153846153846158E-3</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="H11" s="9">
-        <v>2.4572649572649572E-3</v>
+        <v>2.4572649572649498E-3</v>
       </c>
       <c r="I11" s="10">
-        <v>2.1570512820512821E-2</v>
+        <v>2.15705128205128E-2</v>
       </c>
       <c r="J11" s="5">
         <v>5.2564102564102502E-3</v>
@@ -4588,16 +1291,16 @@
         <v>2.6143162393162299E-2</v>
       </c>
       <c r="F12" s="5">
-        <v>2.6143162393162299E-2</v>
+        <v>4.9284188034187999E-2</v>
       </c>
       <c r="G12" s="11">
-        <v>8.8782051282051289E-3</v>
+        <v>8.8782051282051203E-3</v>
       </c>
       <c r="H12" s="12">
-        <v>5.1602564102564107E-3</v>
+        <v>5.1602564102564098E-3</v>
       </c>
       <c r="I12" s="13">
-        <v>3.4391025641025641E-2</v>
+        <v>3.4391025641025599E-2</v>
       </c>
       <c r="J12" s="5">
         <v>9.9679487179487099E-3</v>
@@ -4662,16 +1365,16 @@
         <v>3.8076923076923001E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>3.8076923076923001E-2</v>
+        <v>6.5373931623931597E-2</v>
       </c>
       <c r="G13" s="8">
-        <v>1.5021367521367521E-2</v>
+        <v>1.50213675213675E-2</v>
       </c>
       <c r="H13" s="9">
-        <v>1.0352564102564103E-2</v>
+        <v>1.0352564102564099E-2</v>
       </c>
       <c r="I13" s="10">
-        <v>4.770299145299145E-2</v>
+        <v>4.7702991452991401E-2</v>
       </c>
       <c r="J13" s="5">
         <v>1.6153846153846099E-2</v>
@@ -4736,13 +1439,13 @@
         <v>5.1559829059828997E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>5.1559829059828997E-2</v>
+        <v>8.0544871794871797E-2</v>
       </c>
       <c r="G14" s="11">
-        <v>2.2286324786324786E-2</v>
+        <v>2.22863247863247E-2</v>
       </c>
       <c r="H14" s="12">
-        <v>1.7382478632478632E-2</v>
+        <v>1.7382478632478601E-2</v>
       </c>
       <c r="I14" s="13">
         <v>6.03525641025641E-2</v>
@@ -4810,13 +1513,13 @@
         <v>6.5801282051281995E-2</v>
       </c>
       <c r="F15" s="5">
-        <v>6.5801282051281995E-2</v>
+        <v>9.3344017094017004E-2</v>
       </c>
       <c r="G15" s="8">
-        <v>3.1217948717948717E-2</v>
+        <v>3.1217948717948699E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>2.6805555555555555E-2</v>
+        <v>2.6805555555555499E-2</v>
       </c>
       <c r="I15" s="10">
         <v>7.1495726495726497E-2</v>
@@ -4884,16 +1587,16 @@
         <v>7.88888888888888E-2</v>
       </c>
       <c r="F16" s="5">
-        <v>7.88888888888888E-2</v>
+        <v>0.10476495726495701</v>
       </c>
       <c r="G16" s="11">
-        <v>4.0085470085470087E-2</v>
+        <v>4.0085470085469997E-2</v>
       </c>
       <c r="H16" s="12">
-        <v>3.7681623931623928E-2</v>
+        <v>3.76816239316239E-2</v>
       </c>
       <c r="I16" s="13">
-        <v>8.241452991452991E-2</v>
+        <v>8.2414529914529897E-2</v>
       </c>
       <c r="J16" s="5">
         <v>4.0480769230769202E-2</v>
@@ -4958,16 +1661,16 @@
         <v>9.1399572649572602E-2</v>
       </c>
       <c r="F17" s="5">
-        <v>9.1399572649572602E-2</v>
+        <v>0.11465811965811901</v>
       </c>
       <c r="G17" s="8">
-        <v>4.9102564102564104E-2</v>
+        <v>4.9102564102564097E-2</v>
       </c>
       <c r="H17" s="9">
-        <v>4.9273504273504271E-2</v>
+        <v>4.9273504273504201E-2</v>
       </c>
       <c r="I17" s="10">
-        <v>9.2532051282051275E-2</v>
+        <v>9.2532051282051206E-2</v>
       </c>
       <c r="J17" s="5">
         <v>4.8920940170940098E-2</v>
@@ -5032,16 +1735,16 @@
         <v>0.102254273504273</v>
       </c>
       <c r="F18" s="5">
-        <v>0.102254273504273</v>
+        <v>0.123376068376068</v>
       </c>
       <c r="G18" s="11">
-        <v>5.6997863247863247E-2</v>
+        <v>5.6997863247863198E-2</v>
       </c>
       <c r="H18" s="12">
-        <v>6.1933760683760684E-2</v>
+        <v>6.1933760683760601E-2</v>
       </c>
       <c r="I18" s="13">
-        <v>0.10302350427350428</v>
+        <v>0.103023504273504</v>
       </c>
       <c r="J18" s="5">
         <v>5.5822649572649499E-2</v>
@@ -5106,16 +1809,16 @@
         <v>0.11207264957264899</v>
       </c>
       <c r="F19" s="5">
-        <v>0.11207264957264899</v>
+        <v>0.13153846153846099</v>
       </c>
       <c r="G19" s="8">
-        <v>6.430555555555556E-2</v>
+        <v>6.4305555555555505E-2</v>
       </c>
       <c r="H19" s="9">
-        <v>7.2574786324786325E-2</v>
+        <v>7.2574786324786297E-2</v>
       </c>
       <c r="I19" s="10">
-        <v>0.11400641025641026</v>
+        <v>0.11400641025641001</v>
       </c>
       <c r="J19" s="5">
         <v>6.1762820512820497E-2</v>
@@ -5180,7 +1883,7 @@
         <v>0.120523504273504</v>
       </c>
       <c r="F20" s="5">
-        <v>0.120523504273504</v>
+        <v>0.13887820512820501</v>
       </c>
       <c r="G20" s="11">
         <v>7.0245726495726496E-2</v>
@@ -5189,7 +1892,7 @@
         <v>8.28525641025641E-2</v>
       </c>
       <c r="I20" s="13">
-        <v>0.1249465811965812</v>
+        <v>0.124946581196581</v>
       </c>
       <c r="J20" s="5">
         <v>6.8386752136752105E-2</v>
@@ -5254,16 +1957,16 @@
         <v>0.12775641025640999</v>
       </c>
       <c r="F21" s="5">
-        <v>0.12775641025640999</v>
+        <v>0.14583333333333301</v>
       </c>
       <c r="G21" s="8">
-        <v>7.6880341880341874E-2</v>
+        <v>7.6880341880341804E-2</v>
       </c>
       <c r="H21" s="9">
-        <v>9.2222222222222219E-2</v>
+        <v>9.2222222222222205E-2</v>
       </c>
       <c r="I21" s="10">
-        <v>0.13563034188034187</v>
+        <v>0.13563034188034101</v>
       </c>
       <c r="J21" s="5">
         <v>7.5459401709401699E-2</v>
@@ -5328,16 +2031,16 @@
         <v>0.13433760683760601</v>
       </c>
       <c r="F22" s="5">
-        <v>0.13433760683760601</v>
+        <v>0.153076923076923</v>
       </c>
       <c r="G22" s="11">
-        <v>8.2916666666666666E-2</v>
+        <v>8.2916666666666597E-2</v>
       </c>
       <c r="H22" s="12">
-        <v>0.10193376068376069</v>
+        <v>0.10193376068376001</v>
       </c>
       <c r="I22" s="13">
-        <v>0.14753205128205127</v>
+        <v>0.14753205128205099</v>
       </c>
       <c r="J22" s="5">
         <v>8.1794871794871798E-2</v>
@@ -5402,16 +2105,16 @@
         <v>0.14003205128205101</v>
       </c>
       <c r="F23" s="5">
-        <v>0.14003205128205101</v>
+        <v>0.15992521367521301</v>
       </c>
       <c r="G23" s="8">
         <v>8.9647435897435901E-2</v>
       </c>
       <c r="H23" s="9">
-        <v>0.11142094017094017</v>
+        <v>0.11142094017093999</v>
       </c>
       <c r="I23" s="10">
-        <v>0.15835470085470085</v>
+        <v>0.15835470085469999</v>
       </c>
       <c r="J23" s="5">
         <v>8.8311965811965806E-2</v>
@@ -5476,16 +2179,16 @@
         <v>0.146100427350427</v>
       </c>
       <c r="F24" s="5">
-        <v>0.146100427350427</v>
+        <v>0.166474358974358</v>
       </c>
       <c r="G24" s="11">
-        <v>9.6153846153846159E-2</v>
+        <v>9.6153846153846104E-2</v>
       </c>
       <c r="H24" s="12">
-        <v>0.12239316239316239</v>
+        <v>0.122393162393162</v>
       </c>
       <c r="I24" s="13">
-        <v>0.16780982905982905</v>
+        <v>0.167809829059829</v>
       </c>
       <c r="J24" s="5">
         <v>9.5641025641025598E-2</v>
@@ -5550,16 +2253,16 @@
         <v>0.15153846153846101</v>
       </c>
       <c r="F25" s="5">
-        <v>0.15153846153846101</v>
+        <v>0.17307692307692299</v>
       </c>
       <c r="G25" s="8">
-        <v>0.1026068376068376</v>
+        <v>0.102606837606837</v>
       </c>
       <c r="H25" s="9">
         <v>0.13348290598290599</v>
       </c>
       <c r="I25" s="10">
-        <v>0.17773504273504273</v>
+        <v>0.17773504273504201</v>
       </c>
       <c r="J25" s="5">
         <v>0.10316239316239301</v>
@@ -5624,16 +2327,16 @@
         <v>0.156260683760683</v>
       </c>
       <c r="F26" s="5">
-        <v>0.156260683760683</v>
+        <v>0.17874999999999999</v>
       </c>
       <c r="G26" s="11">
-        <v>0.10918803418803419</v>
+        <v>0.10918803418803399</v>
       </c>
       <c r="H26" s="12">
-        <v>0.14367521367521369</v>
+        <v>0.14367521367521299</v>
       </c>
       <c r="I26" s="13">
-        <v>0.18700854700854702</v>
+        <v>0.18700854700854699</v>
       </c>
       <c r="J26" s="5">
         <v>0.109754273504273</v>
@@ -5698,16 +2401,16 @@
         <v>0.160801282051282</v>
       </c>
       <c r="F27" s="5">
-        <v>0.160801282051282</v>
+        <v>0.18478632478632401</v>
       </c>
       <c r="G27" s="8">
-        <v>0.11553418803418804</v>
+        <v>0.115534188034188</v>
       </c>
       <c r="H27" s="9">
-        <v>0.15396367521367521</v>
+        <v>0.15396367521367499</v>
       </c>
       <c r="I27" s="10">
-        <v>0.19579059829059828</v>
+        <v>0.195790598290598</v>
       </c>
       <c r="J27" s="5">
         <v>0.116837606837606</v>
@@ -5772,16 +2475,16 @@
         <v>0.16441239316239301</v>
       </c>
       <c r="F28" s="5">
-        <v>0.16441239316239301</v>
+        <v>0.19095085470085399</v>
       </c>
       <c r="G28" s="11">
-        <v>0.12141025641025641</v>
+        <v>0.121410256410256</v>
       </c>
       <c r="H28" s="12">
-        <v>0.16418803418803418</v>
+        <v>0.16418803418803399</v>
       </c>
       <c r="I28" s="13">
-        <v>0.20477564102564103</v>
+        <v>0.204775641025641</v>
       </c>
       <c r="J28" s="5">
         <v>0.123141025641025</v>
@@ -5846,16 +2549,16 @@
         <v>0.168311965811965</v>
       </c>
       <c r="F29" s="5">
-        <v>0.168311965811965</v>
+        <v>0.19724358974358899</v>
       </c>
       <c r="G29" s="8">
-        <v>0.12758547008547008</v>
+        <v>0.12758547008547</v>
       </c>
       <c r="H29" s="9">
-        <v>0.17365384615384616</v>
+        <v>0.17365384615384599</v>
       </c>
       <c r="I29" s="10">
-        <v>0.21397435897435899</v>
+        <v>0.21397435897435799</v>
       </c>
       <c r="J29" s="5">
         <v>0.129465811965811</v>
@@ -5920,16 +2623,16 @@
         <v>0.17239316239316199</v>
       </c>
       <c r="F30" s="5">
-        <v>0.17239316239316199</v>
+        <v>0.2033547008547</v>
       </c>
       <c r="G30" s="11">
-        <v>0.13337606837606839</v>
+        <v>0.133376068376068</v>
       </c>
       <c r="H30" s="12">
         <v>0.1825</v>
       </c>
       <c r="I30" s="13">
-        <v>0.2229059829059829</v>
+        <v>0.22290598290598199</v>
       </c>
       <c r="J30" s="5">
         <v>0.135149572649572</v>
@@ -5994,16 +2697,16 @@
         <v>0.17581196581196501</v>
       </c>
       <c r="F31" s="5">
-        <v>0.17581196581196501</v>
+        <v>0.209797008547008</v>
       </c>
       <c r="G31" s="8">
-        <v>0.13902777777777778</v>
+        <v>0.139027777777777</v>
       </c>
       <c r="H31" s="9">
         <v>0.19098290598290599</v>
       </c>
       <c r="I31" s="10">
-        <v>0.23147435897435897</v>
+        <v>0.231474358974358</v>
       </c>
       <c r="J31" s="5">
         <v>0.140363247863247</v>
@@ -6068,16 +2771,16 @@
         <v>0.179316239316239</v>
       </c>
       <c r="F32" s="5">
-        <v>0.179316239316239</v>
+        <v>0.216121794871794</v>
       </c>
       <c r="G32" s="11">
-        <v>0.14474358974358975</v>
+        <v>0.144743589743589</v>
       </c>
       <c r="H32" s="12">
-        <v>0.19889957264957264</v>
+        <v>0.198899572649572</v>
       </c>
       <c r="I32" s="13">
-        <v>0.24067307692307693</v>
+        <v>0.24067307692307599</v>
       </c>
       <c r="J32" s="5">
         <v>0.145299145299145</v>
@@ -6142,16 +2845,16 @@
         <v>0.183076923076923</v>
       </c>
       <c r="F33" s="5">
-        <v>0.183076923076923</v>
+        <v>0.22345085470085399</v>
       </c>
       <c r="G33" s="8">
-        <v>0.15055555555555555</v>
+        <v>0.150555555555555</v>
       </c>
       <c r="H33" s="9">
-        <v>0.20590811965811967</v>
+        <v>0.205908119658119</v>
       </c>
       <c r="I33" s="10">
-        <v>0.24941239316239316</v>
+        <v>0.249412393162393</v>
       </c>
       <c r="J33" s="5">
         <v>0.15075854700854699</v>
@@ -6216,16 +2919,16 @@
         <v>0.18701923076922999</v>
       </c>
       <c r="F34" s="5">
-        <v>0.18701923076922999</v>
+        <v>0.23104700854700799</v>
       </c>
       <c r="G34" s="11">
-        <v>0.15590811965811965</v>
+        <v>0.15590811965811899</v>
       </c>
       <c r="H34" s="12">
-        <v>0.21311965811965811</v>
+        <v>0.213119658119658</v>
       </c>
       <c r="I34" s="13">
-        <v>0.25849358974358977</v>
+        <v>0.25849358974358899</v>
       </c>
       <c r="J34" s="5">
         <v>0.15544871794871701</v>
@@ -6290,16 +2993,16 @@
         <v>0.19099358974358899</v>
       </c>
       <c r="F35" s="5">
-        <v>0.19099358974358899</v>
+        <v>0.238472222222222</v>
       </c>
       <c r="G35" s="8">
-        <v>0.1611965811965812</v>
+        <v>0.16119658119658101</v>
       </c>
       <c r="H35" s="9">
-        <v>0.22057692307692309</v>
+        <v>0.220576923076923</v>
       </c>
       <c r="I35" s="10">
-        <v>0.26857905982905983</v>
+        <v>0.268579059829059</v>
       </c>
       <c r="J35" s="5">
         <v>0.16017094017094</v>
@@ -6364,16 +3067,16 @@
         <v>0.19503205128205101</v>
       </c>
       <c r="F36" s="5">
-        <v>0.19503205128205101</v>
+        <v>0.246858974358974</v>
       </c>
       <c r="G36" s="11">
-        <v>0.16647435897435897</v>
+        <v>0.166474358974358</v>
       </c>
       <c r="H36" s="12">
-        <v>0.22716880341880341</v>
+        <v>0.22716880341880299</v>
       </c>
       <c r="I36" s="13">
-        <v>0.27811965811965811</v>
+        <v>0.278119658119658</v>
       </c>
       <c r="J36" s="5">
         <v>0.16497863247863201</v>
@@ -6438,16 +3141,16 @@
         <v>0.199027777777777</v>
       </c>
       <c r="F37" s="5">
-        <v>0.199027777777777</v>
+        <v>0.25547008547008498</v>
       </c>
       <c r="G37" s="8">
-        <v>0.1714423076923077</v>
+        <v>0.17144230769230701</v>
       </c>
       <c r="H37" s="9">
-        <v>0.23380341880341882</v>
+        <v>0.23380341880341801</v>
       </c>
       <c r="I37" s="10">
-        <v>0.28728632478632476</v>
+        <v>0.28728632478632399</v>
       </c>
       <c r="J37" s="5">
         <v>0.16969017094017</v>
@@ -6512,16 +3215,16 @@
         <v>0.2033547008547</v>
       </c>
       <c r="F38" s="5">
-        <v>0.2033547008547</v>
+        <v>0.26304487179487102</v>
       </c>
       <c r="G38" s="11">
-        <v>0.17621794871794871</v>
+        <v>0.17621794871794799</v>
       </c>
       <c r="H38" s="12">
-        <v>0.24020299145299145</v>
+        <v>0.24020299145299101</v>
       </c>
       <c r="I38" s="13">
-        <v>0.29670940170940169</v>
+        <v>0.29670940170940102</v>
       </c>
       <c r="J38" s="5">
         <v>0.17423076923076899</v>
@@ -6586,16 +3289,16 @@
         <v>0.206752136752136</v>
       </c>
       <c r="F39" s="5">
-        <v>0.206752136752136</v>
+        <v>0.27139957264957199</v>
       </c>
       <c r="G39" s="8">
-        <v>0.18083333333333335</v>
+        <v>0.18083333333333301</v>
       </c>
       <c r="H39" s="9">
-        <v>0.24633547008547008</v>
+        <v>0.24633547008546999</v>
       </c>
       <c r="I39" s="10">
-        <v>0.3067948717948718</v>
+        <v>0.30679487179487103</v>
       </c>
       <c r="J39" s="5">
         <v>0.17870726495726399</v>
@@ -6660,16 +3363,16 @@
         <v>0.210587606837606</v>
       </c>
       <c r="F40" s="5">
-        <v>0.210587606837606</v>
+        <v>0.27958333333333302</v>
       </c>
       <c r="G40" s="11">
-        <v>0.18567307692307691</v>
+        <v>0.185673076923076</v>
       </c>
       <c r="H40" s="12">
-        <v>0.2524252136752137</v>
+        <v>0.25242521367521298</v>
       </c>
       <c r="I40" s="13">
-        <v>0.31587606837606835</v>
+        <v>0.31587606837606802</v>
       </c>
       <c r="J40" s="5">
         <v>0.183055555555555</v>
@@ -6734,16 +3437,16 @@
         <v>0.21445512820512799</v>
       </c>
       <c r="F41" s="5">
-        <v>0.21445512820512799</v>
+        <v>0.28792735042735002</v>
       </c>
       <c r="G41" s="8">
-        <v>0.18963675213675213</v>
+        <v>0.18963675213675199</v>
       </c>
       <c r="H41" s="9">
-        <v>0.25841880341880341</v>
+        <v>0.25841880341880302</v>
       </c>
       <c r="I41" s="10">
-        <v>0.32535256410256408</v>
+        <v>0.32535256410256402</v>
       </c>
       <c r="J41" s="5">
         <v>0.18727564102564101</v>
@@ -6808,16 +3511,16 @@
         <v>0.21855769230769201</v>
       </c>
       <c r="F42" s="5">
-        <v>0.21855769230769201</v>
+        <v>0.29617521367521299</v>
       </c>
       <c r="G42" s="11">
-        <v>0.19350427350427352</v>
+        <v>0.19350427350427299</v>
       </c>
       <c r="H42" s="12">
-        <v>0.26383547008547009</v>
+        <v>0.26383547008546998</v>
       </c>
       <c r="I42" s="13">
-        <v>0.33533119658119659</v>
+        <v>0.33533119658119598</v>
       </c>
       <c r="J42" s="5">
         <v>0.19159188034187999</v>
@@ -6882,16 +3585,16 @@
         <v>0.22232905982905901</v>
       </c>
       <c r="F43" s="5">
-        <v>0.22232905982905901</v>
+        <v>0.30371794871794799</v>
       </c>
       <c r="G43" s="8">
-        <v>0.19751068376068376</v>
+        <v>0.19751068376068301</v>
       </c>
       <c r="H43" s="9">
-        <v>0.27034188034188034</v>
+        <v>0.27034188034188</v>
       </c>
       <c r="I43" s="10">
-        <v>0.34530982905982904</v>
+        <v>0.34530982905982899</v>
       </c>
       <c r="J43" s="5">
         <v>0.19563034188034101</v>
@@ -6956,16 +3659,16 @@
         <v>0.226346153846153</v>
       </c>
       <c r="F44" s="5">
-        <v>0.226346153846153</v>
+        <v>0.31149572649572599</v>
       </c>
       <c r="G44" s="11">
-        <v>0.20113247863247863</v>
+        <v>0.20113247863247799</v>
       </c>
       <c r="H44" s="12">
-        <v>0.27592948717948718</v>
+        <v>0.27592948717948701</v>
       </c>
       <c r="I44" s="13">
-        <v>0.35493589743589743</v>
+        <v>0.35493589743589699</v>
       </c>
       <c r="J44" s="5">
         <v>0.19942307692307601</v>
@@ -7030,16 +3733,16 @@
         <v>0.23060897435897401</v>
       </c>
       <c r="F45" s="5">
-        <v>0.23060897435897401</v>
+        <v>0.31912393162393099</v>
       </c>
       <c r="G45" s="8">
-        <v>0.20431623931623932</v>
+        <v>0.20431623931623899</v>
       </c>
       <c r="H45" s="9">
-        <v>0.28164529914529912</v>
+        <v>0.28164529914529901</v>
       </c>
       <c r="I45" s="10">
-        <v>0.36404914529914528</v>
+        <v>0.364049145299145</v>
       </c>
       <c r="J45" s="5">
         <v>0.20304487179487099</v>
@@ -7104,16 +3807,16 @@
         <v>0.23506410256410201</v>
       </c>
       <c r="F46" s="5">
-        <v>0.23506410256410201</v>
+        <v>0.32667735042735002</v>
       </c>
       <c r="G46" s="11">
-        <v>0.20768162393162393</v>
+        <v>0.20768162393162301</v>
       </c>
       <c r="H46" s="12">
-        <v>0.28804487179487182</v>
+        <v>0.28804487179487098</v>
       </c>
       <c r="I46" s="13">
-        <v>0.37279914529914532</v>
+        <v>0.37279914529914498</v>
       </c>
       <c r="J46" s="5">
         <v>0.20681623931623899</v>
@@ -7178,16 +3881,16 @@
         <v>0.23962606837606801</v>
       </c>
       <c r="F47" s="5">
-        <v>0.23962606837606801</v>
+        <v>0.33438034188034099</v>
       </c>
       <c r="G47" s="8">
-        <v>0.21106837606837606</v>
+        <v>0.211068376068376</v>
       </c>
       <c r="H47" s="9">
-        <v>0.29400641025641028</v>
+        <v>0.29400641025641</v>
       </c>
       <c r="I47" s="10">
-        <v>0.38105769230769232</v>
+        <v>0.38105769230769199</v>
       </c>
       <c r="J47" s="5">
         <v>0.21005341880341799</v>
@@ -7252,16 +3955,16 @@
         <v>0.244188034188034</v>
       </c>
       <c r="F48" s="5">
-        <v>0.244188034188034</v>
+        <v>0.34166666666666601</v>
       </c>
       <c r="G48" s="11">
-        <v>0.21430555555555555</v>
+        <v>0.214305555555555</v>
       </c>
       <c r="H48" s="12">
-        <v>0.30020299145299145</v>
+        <v>0.30020299145299101</v>
       </c>
       <c r="I48" s="13">
-        <v>0.38909188034188036</v>
+        <v>0.38909188034188003</v>
       </c>
       <c r="J48" s="5">
         <v>0.213632478632478</v>
@@ -7326,16 +4029,16 @@
         <v>0.24916666666666601</v>
       </c>
       <c r="F49" s="5">
-        <v>0.24916666666666601</v>
+        <v>0.348814102564102</v>
       </c>
       <c r="G49" s="8">
-        <v>0.2174465811965812</v>
+        <v>0.217446581196581</v>
       </c>
       <c r="H49" s="9">
-        <v>0.30601495726495725</v>
+        <v>0.30601495726495698</v>
       </c>
       <c r="I49" s="10">
-        <v>0.39706196581196579</v>
+        <v>0.39706196581196501</v>
       </c>
       <c r="J49" s="5">
         <v>0.21714743589743499</v>
@@ -7400,16 +4103,16 @@
         <v>0.254540598290598</v>
       </c>
       <c r="F50" s="5">
-        <v>0.254540598290598</v>
+        <v>0.35573717948717898</v>
       </c>
       <c r="G50" s="11">
-        <v>0.22096153846153846</v>
+        <v>0.22096153846153799</v>
       </c>
       <c r="H50" s="12">
-        <v>0.31175213675213675</v>
+        <v>0.31175213675213598</v>
       </c>
       <c r="I50" s="13">
-        <v>0.40441239316239314</v>
+        <v>0.40441239316239302</v>
       </c>
       <c r="J50" s="5">
         <v>0.22054487179487101</v>
@@ -7474,16 +4177,16 @@
         <v>0.25986111111111099</v>
       </c>
       <c r="F51" s="5">
-        <v>0.25986111111111099</v>
+        <v>0.36292735042735003</v>
       </c>
       <c r="G51" s="8">
-        <v>0.22459401709401711</v>
+        <v>0.224594017094017</v>
       </c>
       <c r="H51" s="9">
-        <v>0.31754273504273506</v>
+        <v>0.317542735042735</v>
       </c>
       <c r="I51" s="10">
-        <v>0.4111645299145299</v>
+        <v>0.41116452991452901</v>
       </c>
       <c r="J51" s="5">
         <v>0.223952991452991</v>
@@ -7548,16 +4251,16 @@
         <v>0.26509615384615298</v>
       </c>
       <c r="F52" s="5">
-        <v>0.26509615384615298</v>
+        <v>0.37004273504273499</v>
       </c>
       <c r="G52" s="11">
-        <v>0.22758547008547009</v>
+        <v>0.22758547008547</v>
       </c>
       <c r="H52" s="12">
-        <v>0.32434829059829062</v>
+        <v>0.32434829059829001</v>
       </c>
       <c r="I52" s="13">
-        <v>0.41835470085470083</v>
+        <v>0.4183547008547</v>
       </c>
       <c r="J52" s="5">
         <v>0.22750000000000001</v>
@@ -7622,16 +4325,16 @@
         <v>0.271057692307692</v>
       </c>
       <c r="F53" s="5">
-        <v>0.271057692307692</v>
+        <v>0.37723290598290599</v>
       </c>
       <c r="G53" s="8">
-        <v>0.23084401709401708</v>
+        <v>0.230844017094017</v>
       </c>
       <c r="H53" s="9">
-        <v>0.33073717948717951</v>
+        <v>0.33073717948717901</v>
       </c>
       <c r="I53" s="10">
-        <v>0.42481837606837608</v>
+        <v>0.42481837606837602</v>
       </c>
       <c r="J53" s="5">
         <v>0.23063034188034101</v>
@@ -7696,16 +4399,16 @@
         <v>0.276794871794871</v>
       </c>
       <c r="F54" s="5">
-        <v>0.276794871794871</v>
+        <v>0.385320512820512</v>
       </c>
       <c r="G54" s="11">
-        <v>0.23422008547008547</v>
+        <v>0.23422008547008499</v>
       </c>
       <c r="H54" s="12">
-        <v>0.33708333333333335</v>
+        <v>0.33708333333333301</v>
       </c>
       <c r="I54" s="13">
-        <v>0.43133547008547007</v>
+        <v>0.43133547008547002</v>
       </c>
       <c r="J54" s="5">
         <v>0.23344017094017</v>
@@ -7770,16 +4473,16 @@
         <v>0.283076923076923</v>
       </c>
       <c r="F55" s="5">
-        <v>0.283076923076923</v>
+        <v>0.393493589743589</v>
       </c>
       <c r="G55" s="8">
-        <v>0.23737179487179488</v>
+        <v>0.237371794871794</v>
       </c>
       <c r="H55" s="9">
-        <v>0.34341880341880343</v>
+        <v>0.34341880341880299</v>
       </c>
       <c r="I55" s="10">
-        <v>0.43777777777777777</v>
+        <v>0.43777777777777699</v>
       </c>
       <c r="J55" s="5">
         <v>0.23681623931623899</v>
@@ -7844,16 +4547,16 @@
         <v>0.28868589743589701</v>
       </c>
       <c r="F56" s="5">
-        <v>0.28868589743589701</v>
+        <v>0.401121794871794</v>
       </c>
       <c r="G56" s="11">
-        <v>0.24041666666666667</v>
+        <v>0.240416666666666</v>
       </c>
       <c r="H56" s="12">
-        <v>0.35011752136752139</v>
+        <v>0.350117521367521</v>
       </c>
       <c r="I56" s="13">
-        <v>0.44349358974358977</v>
+        <v>0.44349358974358899</v>
       </c>
       <c r="J56" s="5">
         <v>0.24010683760683699</v>
@@ -7918,10 +4621,10 @@
         <v>0.29423076923076902</v>
       </c>
       <c r="F57" s="5">
-        <v>0.29423076923076902</v>
+        <v>0.40838675213675202</v>
       </c>
       <c r="G57" s="8">
-        <v>0.24318376068376069</v>
+        <v>0.24318376068375999</v>
       </c>
       <c r="H57" s="9">
         <v>0.35651709401709403</v>
@@ -7992,16 +4695,16 @@
         <v>0.299636752136752</v>
       </c>
       <c r="F58" s="5">
-        <v>0.299636752136752</v>
+        <v>0.41533119658119599</v>
       </c>
       <c r="G58" s="11">
-        <v>0.24646367521367521</v>
+        <v>0.24646367521367499</v>
       </c>
       <c r="H58" s="12">
-        <v>0.3626068376068376</v>
+        <v>0.36260683760683698</v>
       </c>
       <c r="I58" s="13">
-        <v>0.45460470085470084</v>
+        <v>0.45460470085470001</v>
       </c>
       <c r="J58" s="5">
         <v>0.246164529914529</v>
@@ -8066,16 +4769,16 @@
         <v>0.304914529914529</v>
       </c>
       <c r="F59" s="5">
-        <v>0.304914529914529</v>
+        <v>0.42245726495726399</v>
       </c>
       <c r="G59" s="8">
-        <v>0.24918803418803417</v>
+        <v>0.24918803418803401</v>
       </c>
       <c r="H59" s="9">
-        <v>0.36915598290598289</v>
+        <v>0.36915598290598201</v>
       </c>
       <c r="I59" s="10">
-        <v>0.4605128205128205</v>
+        <v>0.46051282051282</v>
       </c>
       <c r="J59" s="5">
         <v>0.24909188034188001</v>
@@ -8140,16 +4843,16 @@
         <v>0.31035256410256401</v>
       </c>
       <c r="F60" s="5">
-        <v>0.31035256410256401</v>
+        <v>0.430438034188034</v>
       </c>
       <c r="G60" s="11">
         <v>0.2525</v>
       </c>
       <c r="H60" s="12">
-        <v>0.37524572649572652</v>
+        <v>0.37524572649572602</v>
       </c>
       <c r="I60" s="13">
-        <v>0.46652777777777776</v>
+        <v>0.46652777777777699</v>
       </c>
       <c r="J60" s="5">
         <v>0.25219017094016999</v>
@@ -8214,16 +4917,16 @@
         <v>0.31595085470085399</v>
       </c>
       <c r="F61" s="5">
-        <v>0.31595085470085399</v>
+        <v>0.43836538461538399</v>
       </c>
       <c r="G61" s="8">
-        <v>0.25557692307692309</v>
+        <v>0.25557692307692298</v>
       </c>
       <c r="H61" s="9">
-        <v>0.38212606837606838</v>
+        <v>0.382126068376068</v>
       </c>
       <c r="I61" s="10">
-        <v>0.47264957264957264</v>
+        <v>0.47264957264957203</v>
       </c>
       <c r="J61" s="5">
         <v>0.25548076923076901</v>
@@ -8288,16 +4991,16 @@
         <v>0.32157051282051202</v>
       </c>
       <c r="F62" s="5">
-        <v>0.32157051282051202</v>
+        <v>0.44657051282051202</v>
       </c>
       <c r="G62" s="11">
-        <v>0.25879273504273503</v>
+        <v>0.25879273504273498</v>
       </c>
       <c r="H62" s="12">
-        <v>0.3889957264957265</v>
+        <v>0.388995726495726</v>
       </c>
       <c r="I62" s="13">
-        <v>0.47941239316239315</v>
+        <v>0.47941239316239298</v>
       </c>
       <c r="J62" s="5">
         <v>0.258365384615384</v>
@@ -8362,16 +5065,16 @@
         <v>0.32720085470085403</v>
       </c>
       <c r="F63" s="5">
-        <v>0.32720085470085403</v>
+        <v>0.45528846153846098</v>
       </c>
       <c r="G63" s="8">
-        <v>0.26173076923076921</v>
+        <v>0.26173076923076899</v>
       </c>
       <c r="H63" s="9">
-        <v>0.39621794871794874</v>
+        <v>0.39621794871794802</v>
       </c>
       <c r="I63" s="10">
-        <v>0.4860576923076923</v>
+        <v>0.48605769230769202</v>
       </c>
       <c r="J63" s="5">
         <v>0.261517094017094</v>
@@ -8436,16 +5139,16 @@
         <v>0.33243589743589702</v>
       </c>
       <c r="F64" s="5">
-        <v>0.33243589743589702</v>
+        <v>0.46445512820512802</v>
       </c>
       <c r="G64" s="11">
-        <v>0.26509615384615387</v>
+        <v>0.26509615384615298</v>
       </c>
       <c r="H64" s="12">
-        <v>0.40287393162393165</v>
+        <v>0.40287393162393098</v>
       </c>
       <c r="I64" s="13">
-        <v>0.49295940170940172</v>
+        <v>0.492959401709401</v>
       </c>
       <c r="J64" s="5">
         <v>0.26470085470085403</v>
@@ -8510,16 +5213,16 @@
         <v>0.33759615384615299</v>
       </c>
       <c r="F65" s="5">
-        <v>0.33759615384615299</v>
+        <v>0.47403846153846102</v>
       </c>
       <c r="G65" s="8">
-        <v>0.26814102564102565</v>
+        <v>0.26814102564102499</v>
       </c>
       <c r="H65" s="9">
-        <v>0.40913461538461537</v>
+        <v>0.40913461538461499</v>
       </c>
       <c r="I65" s="10">
-        <v>0.50048076923076923</v>
+        <v>0.50048076923076901</v>
       </c>
       <c r="J65" s="5">
         <v>0.267905982905982</v>
@@ -8584,16 +5287,16 @@
         <v>0.34298076923076898</v>
       </c>
       <c r="F66" s="5">
-        <v>0.34298076923076898</v>
+        <v>0.48353632478632402</v>
       </c>
       <c r="G66" s="11">
-        <v>0.27155982905982906</v>
+        <v>0.27155982905982901</v>
       </c>
       <c r="H66" s="12">
         <v>0.415267094017094</v>
       </c>
       <c r="I66" s="13">
-        <v>0.50798076923076918</v>
+        <v>0.50798076923076896</v>
       </c>
       <c r="J66" s="5">
         <v>0.27104700854700797</v>
@@ -8658,16 +5361,16 @@
         <v>0.34876068376068298</v>
       </c>
       <c r="F67" s="5">
-        <v>0.34876068376068298</v>
+        <v>0.49276709401709401</v>
       </c>
       <c r="G67" s="8">
-        <v>0.27480769230769231</v>
+        <v>0.27480769230769198</v>
       </c>
       <c r="H67" s="9">
-        <v>0.42092948717948719</v>
+        <v>0.42092948717948703</v>
       </c>
       <c r="I67" s="10">
-        <v>0.51507478632478632</v>
+        <v>0.51507478632478598</v>
       </c>
       <c r="J67" s="5">
         <v>0.27444444444444399</v>
@@ -8732,16 +5435,16 @@
         <v>0.35382478632478598</v>
       </c>
       <c r="F68" s="5">
-        <v>0.35382478632478598</v>
+        <v>0.50190170940170897</v>
       </c>
       <c r="G68" s="11">
-        <v>0.27845085470085468</v>
+        <v>0.27845085470085401</v>
       </c>
       <c r="H68" s="12">
         <v>0.426741452991453</v>
       </c>
       <c r="I68" s="13">
-        <v>0.52275641025641029</v>
+        <v>0.52275641025640995</v>
       </c>
       <c r="J68" s="5">
         <v>0.27761752136752099</v>
@@ -8806,16 +5509,16 @@
         <v>0.35892094017094001</v>
       </c>
       <c r="F69" s="5">
-        <v>0.35892094017094001</v>
+        <v>0.51183760683760604</v>
       </c>
       <c r="G69" s="8">
-        <v>0.28159188034188032</v>
+        <v>0.28159188034187999</v>
       </c>
       <c r="H69" s="9">
-        <v>0.43191239316239316</v>
+        <v>0.43191239316239299</v>
       </c>
       <c r="I69" s="10">
-        <v>0.52990384615384611</v>
+        <v>0.529903846153846</v>
       </c>
       <c r="J69" s="5">
         <v>0.28067307692307603</v>
@@ -8880,16 +5583,16 @@
         <v>0.36383547008547001</v>
       </c>
       <c r="F70" s="5">
-        <v>0.36383547008547001</v>
+        <v>0.52149572649572595</v>
       </c>
       <c r="G70" s="11">
-        <v>0.28506410256410258</v>
+        <v>0.28506410256410197</v>
       </c>
       <c r="H70" s="12">
-        <v>0.4374679487179487</v>
+        <v>0.43746794871794797</v>
       </c>
       <c r="I70" s="13">
-        <v>0.53730769230769226</v>
+        <v>0.53730769230769204</v>
       </c>
       <c r="J70" s="5">
         <v>0.28398504273504199</v>
@@ -8954,13 +5657,13 @@
         <v>0.369284188034188</v>
       </c>
       <c r="F71" s="5">
-        <v>0.369284188034188</v>
+        <v>0.53138888888888802</v>
       </c>
       <c r="G71" s="8">
-        <v>0.28822649572649572</v>
+        <v>0.288226495726495</v>
       </c>
       <c r="H71" s="9">
-        <v>0.44319444444444445</v>
+        <v>0.443194444444444</v>
       </c>
       <c r="I71" s="10">
         <v>0.54508547008547004</v>
@@ -9028,16 +5731,16 @@
         <v>0.375</v>
       </c>
       <c r="F72" s="5">
-        <v>0.375</v>
+        <v>0.54045940170940099</v>
       </c>
       <c r="G72" s="11">
-        <v>0.29177350427350429</v>
+        <v>0.29177350427350401</v>
       </c>
       <c r="H72" s="12">
-        <v>0.4482264957264957</v>
+        <v>0.44822649572649498</v>
       </c>
       <c r="I72" s="13">
-        <v>0.55243589743589738</v>
+        <v>0.55243589743589705</v>
       </c>
       <c r="J72" s="5">
         <v>0.29080128205128197</v>
@@ -9102,16 +5805,16 @@
         <v>0.38064102564102498</v>
       </c>
       <c r="F73" s="5">
-        <v>0.38064102564102498</v>
+        <v>0.54927350427350397</v>
       </c>
       <c r="G73" s="8">
-        <v>0.2951923076923077</v>
+        <v>0.29519230769230698</v>
       </c>
       <c r="H73" s="9">
-        <v>0.45332264957264956</v>
+        <v>0.45332264957264901</v>
       </c>
       <c r="I73" s="10">
-        <v>0.56153846153846154</v>
+        <v>0.56153846153846099</v>
       </c>
       <c r="J73" s="5">
         <v>0.294049145299145</v>
@@ -9176,16 +5879,16 @@
         <v>0.38587606837606803</v>
       </c>
       <c r="F74" s="5">
-        <v>0.38587606837606803</v>
+        <v>0.557414529914529</v>
       </c>
       <c r="G74" s="11">
-        <v>0.29858974358974361</v>
+        <v>0.298589743589743</v>
       </c>
       <c r="H74" s="12">
-        <v>0.45864316239316238</v>
+        <v>0.458643162393162</v>
       </c>
       <c r="I74" s="13">
-        <v>0.57030982905982908</v>
+        <v>0.57030982905982897</v>
       </c>
       <c r="J74" s="5">
         <v>0.29769230769230698</v>
@@ -9250,16 +5953,16 @@
         <v>0.39124999999999999</v>
       </c>
       <c r="F75" s="5">
-        <v>0.39124999999999999</v>
+        <v>0.56504273504273494</v>
       </c>
       <c r="G75" s="8">
-        <v>0.30215811965811967</v>
+        <v>0.30215811965811901</v>
       </c>
       <c r="H75" s="9">
-        <v>0.46362179487179489</v>
+        <v>0.463621794871794</v>
       </c>
       <c r="I75" s="10">
-        <v>0.57904914529914531</v>
+        <v>0.57904914529914497</v>
       </c>
       <c r="J75" s="5">
         <v>0.30137820512820501</v>
@@ -9324,16 +6027,16 @@
         <v>0.396014957264957</v>
       </c>
       <c r="F76" s="5">
-        <v>0.396014957264957</v>
+        <v>0.57237179487179402</v>
       </c>
       <c r="G76" s="11">
-        <v>0.30569444444444444</v>
+        <v>0.30569444444444399</v>
       </c>
       <c r="H76" s="12">
-        <v>0.46822649572649572</v>
+        <v>0.468226495726495</v>
       </c>
       <c r="I76" s="13">
-        <v>0.58713675213675209</v>
+        <v>0.58713675213675198</v>
       </c>
       <c r="J76" s="5">
         <v>0.30544871794871797</v>
@@ -9398,16 +6101,16 @@
         <v>0.40161324786324698</v>
       </c>
       <c r="F77" s="5">
-        <v>0.40161324786324698</v>
+        <v>0.58017094017093995</v>
       </c>
       <c r="G77" s="8">
-        <v>0.30868589743589742</v>
+        <v>0.30868589743589703</v>
       </c>
       <c r="H77" s="9">
-        <v>0.4729059829059829</v>
+        <v>0.47290598290598201</v>
       </c>
       <c r="I77" s="10">
-        <v>0.59466880341880346</v>
+        <v>0.59466880341880302</v>
       </c>
       <c r="J77" s="5">
         <v>0.30912393162393098</v>
@@ -9472,16 +6175,16 @@
         <v>0.40717948717948699</v>
       </c>
       <c r="F78" s="5">
-        <v>0.40717948717948699</v>
+        <v>0.58752136752136697</v>
       </c>
       <c r="G78" s="11">
-        <v>0.31199786324786327</v>
+        <v>0.31199786324786299</v>
       </c>
       <c r="H78" s="12">
-        <v>0.47740384615384618</v>
+        <v>0.47740384615384601</v>
       </c>
       <c r="I78" s="13">
-        <v>0.60192307692307689</v>
+        <v>0.60192307692307601</v>
       </c>
       <c r="J78" s="5">
         <v>0.31318376068376003</v>
@@ -9546,16 +6249,16 @@
         <v>0.41288461538461502</v>
       </c>
       <c r="F79" s="5">
-        <v>0.41288461538461502</v>
+        <v>0.59528846153846104</v>
       </c>
       <c r="G79" s="8">
-        <v>0.31583333333333335</v>
+        <v>0.31583333333333302</v>
       </c>
       <c r="H79" s="9">
         <v>0.48147435897435897</v>
       </c>
       <c r="I79" s="10">
-        <v>0.60924145299145294</v>
+        <v>0.60924145299145205</v>
       </c>
       <c r="J79" s="5">
         <v>0.31716880341880299</v>
@@ -9620,16 +6323,16 @@
         <v>0.41882478632478598</v>
       </c>
       <c r="F80" s="5">
-        <v>0.41882478632478598</v>
+        <v>0.602136752136752</v>
       </c>
       <c r="G80" s="11">
-        <v>0.31969017094017094</v>
+        <v>0.31969017094016999</v>
       </c>
       <c r="H80" s="12">
-        <v>0.48645299145299148</v>
+        <v>0.48645299145299098</v>
       </c>
       <c r="I80" s="13">
-        <v>0.61628205128205127</v>
+        <v>0.61628205128205105</v>
       </c>
       <c r="J80" s="5">
         <v>0.32111111111111101</v>
@@ -9694,13 +6397,13 @@
         <v>0.42436965811965799</v>
       </c>
       <c r="F81" s="5">
-        <v>0.42436965811965799</v>
+        <v>0.60960470085469998</v>
       </c>
       <c r="G81" s="8">
-        <v>0.32371794871794873</v>
+        <v>0.32371794871794801</v>
       </c>
       <c r="H81" s="9">
-        <v>0.4910042735042735</v>
+        <v>0.491004273504273</v>
       </c>
       <c r="I81" s="10">
         <v>0.62250000000000005</v>
@@ -9768,16 +6471,16 @@
         <v>0.43060897435897399</v>
       </c>
       <c r="F82" s="5">
-        <v>0.43060897435897399</v>
+        <v>0.61766025641025601</v>
       </c>
       <c r="G82" s="11">
-        <v>0.32740384615384616</v>
+        <v>0.32740384615384599</v>
       </c>
       <c r="H82" s="12">
         <v>0.49549145299145297</v>
       </c>
       <c r="I82" s="13">
-        <v>0.62844017094017091</v>
+        <v>0.62844017094017002</v>
       </c>
       <c r="J82" s="5">
         <v>0.32945512820512801</v>
@@ -9842,16 +6545,16 @@
         <v>0.43720085470085401</v>
       </c>
       <c r="F83" s="5">
-        <v>0.43720085470085401</v>
+        <v>0.62610042735042704</v>
       </c>
       <c r="G83" s="8">
-        <v>0.33117521367521369</v>
+        <v>0.33117521367521302</v>
       </c>
       <c r="H83" s="9">
-        <v>0.50068376068376064</v>
+        <v>0.50068376068375997</v>
       </c>
       <c r="I83" s="10">
-        <v>0.63368589743589743</v>
+        <v>0.63368589743589698</v>
       </c>
       <c r="J83" s="5">
         <v>0.33383547008546999</v>
@@ -9916,16 +6619,16 @@
         <v>0.44300213675213601</v>
       </c>
       <c r="F84" s="5">
-        <v>0.44300213675213601</v>
+        <v>0.63535256410256402</v>
       </c>
       <c r="G84" s="11">
-        <v>0.33533119658119659</v>
+        <v>0.33533119658119598</v>
       </c>
       <c r="H84" s="12">
-        <v>0.50606837606837607</v>
+        <v>0.50606837606837596</v>
       </c>
       <c r="I84" s="13">
-        <v>0.63878205128205123</v>
+        <v>0.63878205128205101</v>
       </c>
       <c r="J84" s="5">
         <v>0.33806623931623903</v>
@@ -9990,16 +6693,16 @@
         <v>0.449059829059829</v>
       </c>
       <c r="F85" s="5">
-        <v>0.449059829059829</v>
+        <v>0.64472222222222197</v>
       </c>
       <c r="G85" s="8">
-        <v>0.33904914529914532</v>
+        <v>0.33904914529914498</v>
       </c>
       <c r="H85" s="9">
-        <v>0.51197649572649573</v>
+        <v>0.51197649572649495</v>
       </c>
       <c r="I85" s="10">
-        <v>0.64440170940170938</v>
+        <v>0.64440170940170904</v>
       </c>
       <c r="J85" s="5">
         <v>0.34224358974358898</v>
@@ -10064,16 +6767,16 @@
         <v>0.45526709401709398</v>
       </c>
       <c r="F86" s="5">
-        <v>0.45526709401709398</v>
+        <v>0.65423076923076895</v>
       </c>
       <c r="G86" s="11">
-        <v>0.34341880341880343</v>
+        <v>0.34341880341880299</v>
       </c>
       <c r="H86" s="12">
-        <v>0.51775641025641028</v>
+        <v>0.51775641025640995</v>
       </c>
       <c r="I86" s="13">
-        <v>0.65100427350427348</v>
+        <v>0.65100427350427303</v>
       </c>
       <c r="J86" s="5">
         <v>0.34660256410256401</v>
@@ -10138,16 +6841,16 @@
         <v>0.46138888888888802</v>
       </c>
       <c r="F87" s="5">
-        <v>0.46138888888888802</v>
+        <v>0.66334401709401702</v>
       </c>
       <c r="G87" s="8">
-        <v>0.34760683760683758</v>
+        <v>0.34760683760683703</v>
       </c>
       <c r="H87" s="9">
-        <v>0.52411324786324787</v>
+        <v>0.52411324786324698</v>
       </c>
       <c r="I87" s="10">
-        <v>0.65659188034188032</v>
+        <v>0.65659188034187999</v>
       </c>
       <c r="J87" s="5">
         <v>0.3508547008547</v>
@@ -10212,16 +6915,16 @@
         <v>0.467574786324786</v>
       </c>
       <c r="F88" s="5">
-        <v>0.467574786324786</v>
+        <v>0.672158119658119</v>
       </c>
       <c r="G88" s="11">
-        <v>0.35199786324786325</v>
+        <v>0.35199786324786297</v>
       </c>
       <c r="H88" s="12">
-        <v>0.53112179487179489</v>
+        <v>0.53112179487179401</v>
       </c>
       <c r="I88" s="13">
-        <v>0.66214743589743585</v>
+        <v>0.66214743589743497</v>
       </c>
       <c r="J88" s="5">
         <v>0.35525641025641003</v>
@@ -10286,16 +6989,16 @@
         <v>0.47403846153846102</v>
       </c>
       <c r="F89" s="5">
-        <v>0.47403846153846102</v>
+        <v>0.68047008547008503</v>
       </c>
       <c r="G89" s="8">
-        <v>0.35658119658119658</v>
+        <v>0.35658119658119602</v>
       </c>
       <c r="H89" s="9">
-        <v>0.53810897435897431</v>
+        <v>0.53810897435897398</v>
       </c>
       <c r="I89" s="10">
-        <v>0.66797008547008552</v>
+        <v>0.66797008547008496</v>
       </c>
       <c r="J89" s="5">
         <v>0.359636752136752</v>
@@ -10360,16 +7063,16 @@
         <v>0.48129273504273501</v>
       </c>
       <c r="F90" s="5">
-        <v>0.48129273504273501</v>
+        <v>0.68977564102564104</v>
       </c>
       <c r="G90" s="11">
-        <v>0.36070512820512818</v>
+        <v>0.36070512820512801</v>
       </c>
       <c r="H90" s="12">
-        <v>0.54529914529914525</v>
+        <v>0.54529914529914503</v>
       </c>
       <c r="I90" s="13">
-        <v>0.67373931623931627</v>
+        <v>0.67373931623931604</v>
       </c>
       <c r="J90" s="5">
         <v>0.36400641025641001</v>
@@ -10434,16 +7137,16 @@
         <v>0.489155982905982</v>
       </c>
       <c r="F91" s="5">
-        <v>0.489155982905982</v>
+        <v>0.699017094017094</v>
       </c>
       <c r="G91" s="8">
-        <v>0.36481837606837608</v>
+        <v>0.36481837606837603</v>
       </c>
       <c r="H91" s="9">
-        <v>0.55233974358974358</v>
+        <v>0.55233974358974303</v>
       </c>
       <c r="I91" s="10">
-        <v>0.67948717948717952</v>
+        <v>0.67948717948717896</v>
       </c>
       <c r="J91" s="5">
         <v>0.368739316239316</v>
@@ -10508,16 +7211,16 @@
         <v>0.49702991452991402</v>
       </c>
       <c r="F92" s="5">
-        <v>0.49702991452991402</v>
+        <v>0.70775641025641001</v>
       </c>
       <c r="G92" s="11">
-        <v>0.36900641025641023</v>
+        <v>0.36900641025641001</v>
       </c>
       <c r="H92" s="12">
-        <v>0.56021367521367527</v>
+        <v>0.56021367521367504</v>
       </c>
       <c r="I92" s="13">
-        <v>0.68619658119658122</v>
+        <v>0.686196581196581</v>
       </c>
       <c r="J92" s="5">
         <v>0.37318376068376002</v>
@@ -10582,13 +7285,13 @@
         <v>0.505</v>
       </c>
       <c r="F93" s="5">
-        <v>0.505</v>
+        <v>0.71634615384615297</v>
       </c>
       <c r="G93" s="8">
-        <v>0.37353632478632481</v>
+        <v>0.37353632478632398</v>
       </c>
       <c r="H93" s="9">
-        <v>0.56804487179487184</v>
+        <v>0.56804487179487095</v>
       </c>
       <c r="I93" s="10">
         <v>0.69344017094017096</v>
@@ -10656,16 +7359,16 @@
         <v>0.51368589743589699</v>
       </c>
       <c r="F94" s="5">
-        <v>0.51368589743589699</v>
+        <v>0.72430555555555498</v>
       </c>
       <c r="G94" s="11">
-        <v>0.37795940170940173</v>
+        <v>0.37795940170940101</v>
       </c>
       <c r="H94" s="12">
         <v>0.57633547008547004</v>
       </c>
       <c r="I94" s="13">
-        <v>0.70113247863247863</v>
+        <v>0.70113247863247796</v>
       </c>
       <c r="J94" s="5">
         <v>0.38229700854700799</v>
@@ -10730,16 +7433,16 @@
         <v>0.52220085470085398</v>
       </c>
       <c r="F95" s="5">
-        <v>0.52220085470085398</v>
+        <v>0.73024572649572606</v>
       </c>
       <c r="G95" s="8">
-        <v>0.38256410256410256</v>
+        <v>0.382564102564102</v>
       </c>
       <c r="H95" s="9">
-        <v>0.58465811965811965</v>
+        <v>0.58465811965811898</v>
       </c>
       <c r="I95" s="10">
-        <v>0.71003205128205127</v>
+        <v>0.71003205128205105</v>
       </c>
       <c r="J95" s="5">
         <v>0.38698717948717898</v>
@@ -10804,16 +7507,16 @@
         <v>0.53132478632478597</v>
       </c>
       <c r="F96" s="5">
-        <v>0.53132478632478597</v>
+        <v>0.73590811965811898</v>
       </c>
       <c r="G96" s="11">
         <v>0.38772435897435897</v>
       </c>
       <c r="H96" s="12">
-        <v>0.59361111111111109</v>
+        <v>0.59361111111111098</v>
       </c>
       <c r="I96" s="13">
-        <v>0.71961538461538466</v>
+        <v>0.71961538461538399</v>
       </c>
       <c r="J96" s="5">
         <v>0.39161324786324703</v>
@@ -10878,16 +7581,16 @@
         <v>0.54108974358974304</v>
       </c>
       <c r="F97" s="5">
-        <v>0.54108974358974304</v>
+        <v>0.74072649572649496</v>
       </c>
       <c r="G97" s="8">
-        <v>0.39292735042735044</v>
+        <v>0.39292735042735</v>
       </c>
       <c r="H97" s="9">
         <v>0.601965811965812</v>
       </c>
       <c r="I97" s="10">
-        <v>0.7285576923076923</v>
+        <v>0.72855769230769196</v>
       </c>
       <c r="J97" s="5">
         <v>0.39698717948717899</v>
@@ -10952,16 +7655,16 @@
         <v>0.55097222222222197</v>
       </c>
       <c r="F98" s="5">
-        <v>0.55097222222222197</v>
+        <v>0.74570512820512802</v>
       </c>
       <c r="G98" s="11">
-        <v>0.39788461538461539</v>
+        <v>0.397884615384615</v>
       </c>
       <c r="H98" s="12">
-        <v>0.60990384615384619</v>
+        <v>0.60990384615384596</v>
       </c>
       <c r="I98" s="13">
-        <v>0.73746794871794874</v>
+        <v>0.73746794871794796</v>
       </c>
       <c r="J98" s="5">
         <v>0.40165598290598198</v>
@@ -11026,16 +7729,16 @@
         <v>0.56157051282051196</v>
       </c>
       <c r="F99" s="5">
-        <v>0.56157051282051196</v>
+        <v>0.75096153846153801</v>
       </c>
       <c r="G99" s="8">
-        <v>0.40362179487179489</v>
+        <v>0.403621794871794</v>
       </c>
       <c r="H99" s="9">
-        <v>0.61742521367521364</v>
+        <v>0.61742521367521297</v>
       </c>
       <c r="I99" s="10">
-        <v>0.74543803418803423</v>
+        <v>0.745438034188034</v>
       </c>
       <c r="J99" s="5">
         <v>0.40666666666666601</v>
@@ -11100,16 +7803,16 @@
         <v>0.571324786324786</v>
       </c>
       <c r="F100" s="5">
-        <v>0.571324786324786</v>
+        <v>0.755737179487179</v>
       </c>
       <c r="G100" s="11">
-        <v>0.40919871794871793</v>
+        <v>0.40919871794871698</v>
       </c>
       <c r="H100" s="12">
-        <v>0.62407051282051285</v>
+        <v>0.62407051282051196</v>
       </c>
       <c r="I100" s="13">
-        <v>0.75206196581196583</v>
+        <v>0.75206196581196505</v>
       </c>
       <c r="J100" s="5">
         <v>0.411987179487179</v>
@@ -11174,16 +7877,16 @@
         <v>0.58048076923076897</v>
       </c>
       <c r="F101" s="5">
-        <v>0.58048076923076897</v>
+        <v>0.76041666666666596</v>
       </c>
       <c r="G101" s="8">
-        <v>0.41505341880341878</v>
+        <v>0.41505341880341801</v>
       </c>
       <c r="H101" s="9">
-        <v>0.62929487179487176</v>
+        <v>0.62929487179487098</v>
       </c>
       <c r="I101" s="10">
-        <v>0.75850427350427352</v>
+        <v>0.75850427350427296</v>
       </c>
       <c r="J101" s="5">
         <v>0.41719017094017002</v>
@@ -11248,16 +7951,16 @@
         <v>0.59059829059829005</v>
       </c>
       <c r="F102" s="5">
-        <v>0.59059829059829005</v>
+        <v>0.76501068376068304</v>
       </c>
       <c r="G102" s="11">
-        <v>0.42054487179487182</v>
+        <v>0.42054487179487099</v>
       </c>
       <c r="H102" s="12">
-        <v>0.63358974358974363</v>
+        <v>0.63358974358974296</v>
       </c>
       <c r="I102" s="13">
-        <v>0.76427350427350427</v>
+        <v>0.76427350427350405</v>
       </c>
       <c r="J102" s="5">
         <v>0.42240384615384602</v>
@@ -11322,16 +8025,16 @@
         <v>0.60059829059828995</v>
       </c>
       <c r="F103" s="5">
-        <v>0.60059829059828995</v>
+        <v>0.76971153846153795</v>
       </c>
       <c r="G103" s="8">
-        <v>0.4260790598290598</v>
+        <v>0.42607905982905903</v>
       </c>
       <c r="H103" s="9">
-        <v>0.63851495726495722</v>
+        <v>0.63851495726495699</v>
       </c>
       <c r="I103" s="10">
-        <v>0.76912393162393167</v>
+        <v>0.769123931623931</v>
       </c>
       <c r="J103" s="5">
         <v>0.42836538461538398</v>
@@ -11396,13 +8099,13 @@
         <v>0.60994658119658096</v>
       </c>
       <c r="F104" s="5">
-        <v>0.60994658119658096</v>
+        <v>0.77332264957264896</v>
       </c>
       <c r="G104" s="11">
-        <v>0.43148504273504273</v>
+        <v>0.43148504273504201</v>
       </c>
       <c r="H104" s="12">
-        <v>0.64447649572649568</v>
+        <v>0.64447649572649501</v>
       </c>
       <c r="I104" s="13">
         <v>0.77352564102564103</v>
@@ -11470,16 +8173,16 @@
         <v>0.61759615384615296</v>
       </c>
       <c r="F105" s="5">
-        <v>0.61759615384615296</v>
+        <v>0.77657051282051204</v>
       </c>
       <c r="G105" s="8">
-        <v>0.43662393162393165</v>
+        <v>0.43662393162393098</v>
       </c>
       <c r="H105" s="9">
         <v>0.65071581196581196</v>
       </c>
       <c r="I105" s="10">
-        <v>0.77770299145299149</v>
+        <v>0.77770299145299104</v>
       </c>
       <c r="J105" s="5">
         <v>0.43954059829059799</v>
@@ -11544,16 +8247,16 @@
         <v>0.62597222222222204</v>
       </c>
       <c r="F106" s="5">
-        <v>0.62597222222222204</v>
+        <v>0.77871794871794797</v>
       </c>
       <c r="G106" s="11">
-        <v>0.4416025641025641</v>
+        <v>0.44160256410256399</v>
       </c>
       <c r="H106" s="12">
-        <v>0.65739316239316237</v>
+        <v>0.65739316239316203</v>
       </c>
       <c r="I106" s="13">
-        <v>0.78103632478632479</v>
+        <v>0.78103632478632401</v>
       </c>
       <c r="J106" s="5">
         <v>0.44541666666666602</v>
@@ -11618,16 +8321,16 @@
         <v>0.63432692307692295</v>
       </c>
       <c r="F107" s="5">
-        <v>0.63432692307692295</v>
+        <v>0.78054487179487098</v>
       </c>
       <c r="G107" s="8">
         <v>0.44674145299145301</v>
       </c>
       <c r="H107" s="9">
-        <v>0.66470085470085472</v>
+        <v>0.66470085470085405</v>
       </c>
       <c r="I107" s="10">
-        <v>0.78443376068376069</v>
+        <v>0.78443376068376003</v>
       </c>
       <c r="J107" s="5">
         <v>0.45117521367521302</v>
@@ -11692,16 +8395,16 @@
         <v>0.64327991452991395</v>
       </c>
       <c r="F108" s="5">
-        <v>0.64327991452991395</v>
+        <v>0.78191239316239303</v>
       </c>
       <c r="G108" s="11">
-        <v>0.45135683760683759</v>
+        <v>0.45135683760683698</v>
       </c>
       <c r="H108" s="12">
-        <v>0.67206196581196587</v>
+        <v>0.67206196581196498</v>
       </c>
       <c r="I108" s="13">
-        <v>0.7878418803418803</v>
+        <v>0.78784188034187996</v>
       </c>
       <c r="J108" s="5">
         <v>0.45768162393162298</v>
@@ -11766,16 +8469,16 @@
         <v>0.65294871794871701</v>
       </c>
       <c r="F109" s="5">
-        <v>0.65294871794871701</v>
+        <v>0.783247863247863</v>
       </c>
       <c r="G109" s="8">
-        <v>0.45622863247863249</v>
+        <v>0.45622863247863199</v>
       </c>
       <c r="H109" s="9">
-        <v>0.68027777777777776</v>
+        <v>0.68027777777777698</v>
       </c>
       <c r="I109" s="10">
-        <v>0.79148504273504272</v>
+        <v>0.79148504273504205</v>
       </c>
       <c r="J109" s="5">
         <v>0.46375</v>
@@ -11840,16 +8543,16 @@
         <v>0.66179487179487095</v>
       </c>
       <c r="F110" s="5">
-        <v>0.66179487179487095</v>
+        <v>0.784551282051282</v>
       </c>
       <c r="G110" s="11">
         <v>0.46124999999999999</v>
       </c>
       <c r="H110" s="12">
-        <v>0.68896367521367519</v>
+        <v>0.68896367521367496</v>
       </c>
       <c r="I110" s="13">
-        <v>0.79404914529914528</v>
+        <v>0.79404914529914505</v>
       </c>
       <c r="J110" s="5">
         <v>0.46997863247863197</v>
@@ -11914,13 +8617,13 @@
         <v>0.67103632478632402</v>
       </c>
       <c r="F111" s="5">
-        <v>0.67103632478632402</v>
+        <v>0.78547008547008501</v>
       </c>
       <c r="G111" s="8">
-        <v>0.46615384615384614</v>
+        <v>0.46615384615384597</v>
       </c>
       <c r="H111" s="9">
-        <v>0.6974358974358974</v>
+        <v>0.69743589743589696</v>
       </c>
       <c r="I111" s="10">
         <v>0.79651709401709403</v>
@@ -11988,16 +8691,16 @@
         <v>0.67940170940170896</v>
       </c>
       <c r="F112" s="5">
-        <v>0.67940170940170896</v>
+        <v>0.78645299145299097</v>
       </c>
       <c r="G112" s="11">
-        <v>0.47083333333333333</v>
+        <v>0.47083333333333299</v>
       </c>
       <c r="H112" s="12">
-        <v>0.70566239316239321</v>
+        <v>0.70566239316239299</v>
       </c>
       <c r="I112" s="13">
-        <v>0.79895299145299148</v>
+        <v>0.79895299145299103</v>
       </c>
       <c r="J112" s="5">
         <v>0.48177350427350402</v>
@@ -12062,16 +8765,16 @@
         <v>0.68775641025640999</v>
       </c>
       <c r="F113" s="5">
-        <v>0.68775641025640999</v>
+        <v>0.78758547008546997</v>
       </c>
       <c r="G113" s="8">
-        <v>0.4761431623931624</v>
+        <v>0.47614316239316201</v>
       </c>
       <c r="H113" s="9">
         <v>0.71375</v>
       </c>
       <c r="I113" s="10">
-        <v>0.80141025641025643</v>
+        <v>0.80141025641025598</v>
       </c>
       <c r="J113" s="5">
         <v>0.48808760683760599</v>
@@ -12136,16 +8839,16 @@
         <v>0.69726495726495696</v>
       </c>
       <c r="F114" s="5">
-        <v>0.69726495726495696</v>
+        <v>0.78908119658119602</v>
       </c>
       <c r="G114" s="11">
-        <v>0.48158119658119658</v>
+        <v>0.48158119658119602</v>
       </c>
       <c r="H114" s="12">
-        <v>0.7219444444444445</v>
+        <v>0.72194444444444394</v>
       </c>
       <c r="I114" s="13">
-        <v>0.80413461538461539</v>
+        <v>0.80413461538461495</v>
       </c>
       <c r="J114" s="5">
         <v>0.493717948717948</v>
@@ -12210,16 +8913,16 @@
         <v>0.70737179487179402</v>
       </c>
       <c r="F115" s="5">
-        <v>0.70737179487179402</v>
+        <v>0.790897435897435</v>
       </c>
       <c r="G115" s="8">
-        <v>0.48714743589743592</v>
+        <v>0.48714743589743498</v>
       </c>
       <c r="H115" s="9">
-        <v>0.72966880341880347</v>
+        <v>0.72966880341880302</v>
       </c>
       <c r="I115" s="10">
-        <v>0.80662393162393164</v>
+        <v>0.80662393162393098</v>
       </c>
       <c r="J115" s="5">
         <v>0.49962606837606799</v>
@@ -12284,16 +8987,16 @@
         <v>0.71819444444444402</v>
       </c>
       <c r="F116" s="5">
-        <v>0.71819444444444402</v>
+        <v>0.79336538461538397</v>
       </c>
       <c r="G116" s="11">
-        <v>0.49267094017094015</v>
+        <v>0.49267094017093999</v>
       </c>
       <c r="H116" s="12">
-        <v>0.73717948717948723</v>
+        <v>0.737179487179487</v>
       </c>
       <c r="I116" s="13">
-        <v>0.80833333333333335</v>
+        <v>0.80833333333333302</v>
       </c>
       <c r="J116" s="5">
         <v>0.50538461538461499</v>
@@ -12358,16 +9061,16 @@
         <v>0.72895299145299097</v>
       </c>
       <c r="F117" s="5">
-        <v>0.72895299145299097</v>
+        <v>0.79592948717948697</v>
       </c>
       <c r="G117" s="8">
-        <v>0.4983440170940171</v>
+        <v>0.49834401709401699</v>
       </c>
       <c r="H117" s="9">
-        <v>0.74558760683760683</v>
+        <v>0.74558760683760605</v>
       </c>
       <c r="I117" s="10">
-        <v>0.80960470085470082</v>
+        <v>0.80960470085470004</v>
       </c>
       <c r="J117" s="5">
         <v>0.51145299145299095</v>
@@ -12432,16 +9135,16 @@
         <v>0.73995726495726499</v>
       </c>
       <c r="F118" s="5">
-        <v>0.73995726495726499</v>
+        <v>0.79882478632478604</v>
       </c>
       <c r="G118" s="11">
-        <v>0.50391025641025644</v>
+        <v>0.503910256410256</v>
       </c>
       <c r="H118" s="12">
-        <v>0.75398504273504274</v>
+        <v>0.75398504273504197</v>
       </c>
       <c r="I118" s="13">
-        <v>0.81048076923076928</v>
+        <v>0.81048076923076895</v>
       </c>
       <c r="J118" s="5">
         <v>0.51711538461538398</v>
@@ -12506,16 +9209,16 @@
         <v>0.75066239316239303</v>
       </c>
       <c r="F119" s="5">
-        <v>0.75066239316239303</v>
+        <v>0.80133547008547001</v>
       </c>
       <c r="G119" s="8">
         <v>0.50995726495726501</v>
       </c>
       <c r="H119" s="9">
-        <v>0.76130341880341879</v>
+        <v>0.76130341880341801</v>
       </c>
       <c r="I119" s="10">
-        <v>0.8109188034188034</v>
+        <v>0.81091880341880296</v>
       </c>
       <c r="J119" s="5">
         <v>0.522991452991453</v>
@@ -12580,13 +9283,13 @@
         <v>0.75970085470085402</v>
       </c>
       <c r="F120" s="5">
-        <v>0.75970085470085402</v>
+        <v>0.80384615384615299</v>
       </c>
       <c r="G120" s="11">
-        <v>0.51608974358974358</v>
+        <v>0.51608974358974302</v>
       </c>
       <c r="H120" s="12">
-        <v>0.76838675213675212</v>
+        <v>0.768386752136752</v>
       </c>
       <c r="I120" s="13">
         <v>0.81125000000000003</v>
@@ -12654,13 +9357,13 @@
         <v>0.76783119658119603</v>
       </c>
       <c r="F121" s="5">
-        <v>0.76783119658119603</v>
+        <v>0.806153846153846</v>
       </c>
       <c r="G121" s="8">
-        <v>0.52232905982905986</v>
+        <v>0.52232905982905897</v>
       </c>
       <c r="H121" s="9">
-        <v>0.77387820512820515</v>
+        <v>0.77387820512820504</v>
       </c>
       <c r="I121" s="10">
         <v>0.81155982905982904</v>
@@ -12728,16 +9431,16 @@
         <v>0.77521367521367501</v>
       </c>
       <c r="F122" s="5">
-        <v>0.77521367521367501</v>
+        <v>0.80787393162393095</v>
       </c>
       <c r="G122" s="11">
-        <v>0.52876068376068375</v>
+        <v>0.52876068376068297</v>
       </c>
       <c r="H122" s="12">
-        <v>0.77831196581196582</v>
+        <v>0.77831196581196505</v>
       </c>
       <c r="I122" s="13">
-        <v>0.81191239316239316</v>
+        <v>0.81191239316239305</v>
       </c>
       <c r="J122" s="5">
         <v>0.54235042735042704</v>
@@ -12802,16 +9505,16 @@
         <v>0.78174145299145303</v>
       </c>
       <c r="F123" s="5">
-        <v>0.78174145299145303</v>
+        <v>0.80911324786324701</v>
       </c>
       <c r="G123" s="8">
-        <v>0.53560897435897437</v>
+        <v>0.53560897435897403</v>
       </c>
       <c r="H123" s="9">
-        <v>0.78259615384615389</v>
+        <v>0.782596153846153</v>
       </c>
       <c r="I123" s="10">
-        <v>0.81224358974358979</v>
+        <v>0.81224358974358901</v>
       </c>
       <c r="J123" s="5">
         <v>0.54939102564102504</v>
@@ -12876,16 +9579,16 @@
         <v>0.78822649572649495</v>
       </c>
       <c r="F124" s="5">
-        <v>0.78822649572649495</v>
+        <v>0.81026709401709396</v>
       </c>
       <c r="G124" s="11">
-        <v>0.54252136752136748</v>
+        <v>0.54252136752136704</v>
       </c>
       <c r="H124" s="12">
         <v>0.78625</v>
       </c>
       <c r="I124" s="13">
-        <v>0.8125747863247863</v>
+        <v>0.81257478632478597</v>
       </c>
       <c r="J124" s="5">
         <v>0.556239316239316</v>
@@ -12950,16 +9653,16 @@
         <v>0.79367521367521299</v>
       </c>
       <c r="F125" s="5">
-        <v>0.79367521367521299</v>
+        <v>0.81148504273504196</v>
       </c>
       <c r="G125" s="8">
-        <v>0.5493482905982906</v>
+        <v>0.54934829059829005</v>
       </c>
       <c r="H125" s="9">
-        <v>0.78974358974358971</v>
+        <v>0.78974358974358905</v>
       </c>
       <c r="I125" s="10">
-        <v>0.81289529914529912</v>
+        <v>0.81289529914529901</v>
       </c>
       <c r="J125" s="5">
         <v>0.56291666666666595</v>
@@ -13024,16 +9727,16 @@
         <v>0.79865384615384605</v>
       </c>
       <c r="F126" s="5">
-        <v>0.79865384615384605</v>
+        <v>0.81288461538461498</v>
       </c>
       <c r="G126" s="11">
-        <v>0.55581196581196579</v>
+        <v>0.55581196581196501</v>
       </c>
       <c r="H126" s="12">
-        <v>0.79300213675213671</v>
+        <v>0.79300213675213604</v>
       </c>
       <c r="I126" s="13">
-        <v>0.81318376068376064</v>
+        <v>0.81318376068375997</v>
       </c>
       <c r="J126" s="5">
         <v>0.56899572649572605</v>
@@ -13098,16 +9801,16 @@
         <v>0.80361111111111105</v>
       </c>
       <c r="F127" s="5">
-        <v>0.80361111111111105</v>
+        <v>0.81389957264957202</v>
       </c>
       <c r="G127" s="8">
-        <v>0.56212606837606838</v>
+        <v>0.56212606837606804</v>
       </c>
       <c r="H127" s="9">
-        <v>0.79619658119658121</v>
+        <v>0.79619658119658099</v>
       </c>
       <c r="I127" s="10">
-        <v>0.81345085470085465</v>
+        <v>0.81345085470085399</v>
       </c>
       <c r="J127" s="5">
         <v>0.575363247863247</v>
@@ -13172,13 +9875,13 @@
         <v>0.80752136752136705</v>
       </c>
       <c r="F128" s="5">
-        <v>0.80752136752136705</v>
+        <v>0.81498931623931603</v>
       </c>
       <c r="G128" s="11">
         <v>0.56772435897435902</v>
       </c>
       <c r="H128" s="12">
-        <v>0.79945512820512821</v>
+        <v>0.79945512820512799</v>
       </c>
       <c r="I128" s="13">
         <v>0.81370726495726498</v>
@@ -13246,16 +9949,16 @@
         <v>0.81102564102564101</v>
       </c>
       <c r="F129" s="5">
-        <v>0.81102564102564101</v>
+        <v>0.81582264957264905</v>
       </c>
       <c r="G129" s="8">
-        <v>0.57289529914529913</v>
+        <v>0.57289529914529902</v>
       </c>
       <c r="H129" s="9">
-        <v>0.80205128205128207</v>
+        <v>0.80205128205128196</v>
       </c>
       <c r="I129" s="10">
-        <v>0.8141239316239316</v>
+        <v>0.81412393162393104</v>
       </c>
       <c r="J129" s="5">
         <v>0.58742521367521305</v>
@@ -13320,16 +10023,16 @@
         <v>0.81383547008546997</v>
       </c>
       <c r="F130" s="5">
-        <v>0.81383547008546997</v>
+        <v>0.81701923076923</v>
       </c>
       <c r="G130" s="11">
-        <v>0.57873931623931629</v>
+        <v>0.57873931623931596</v>
       </c>
       <c r="H130" s="12">
-        <v>0.80444444444444441</v>
+        <v>0.80444444444444396</v>
       </c>
       <c r="I130" s="13">
-        <v>0.81443376068376072</v>
+        <v>0.81443376068376006</v>
       </c>
       <c r="J130" s="5">
         <v>0.59398504273504205</v>
@@ -13394,16 +10097,16 @@
         <v>0.81583333333333297</v>
       </c>
       <c r="F131" s="5">
-        <v>0.81583333333333297</v>
+        <v>0.81780982905982902</v>
       </c>
       <c r="G131" s="8">
-        <v>0.58472222222222225</v>
+        <v>0.58472222222222203</v>
       </c>
       <c r="H131" s="9">
-        <v>0.80733974358974359</v>
+        <v>0.80733974358974303</v>
       </c>
       <c r="I131" s="10">
-        <v>0.81476495726495723</v>
+        <v>0.81476495726495701</v>
       </c>
       <c r="J131" s="5">
         <v>0.60007478632478595</v>
@@ -13468,16 +10171,16 @@
         <v>0.81728632478632401</v>
       </c>
       <c r="F132" s="5">
-        <v>0.81728632478632401</v>
+        <v>0.81849358974358899</v>
       </c>
       <c r="G132" s="11">
-        <v>0.59012820512820507</v>
+        <v>0.59012820512820496</v>
       </c>
       <c r="H132" s="12">
-        <v>0.81010683760683766</v>
+        <v>0.81010683760683699</v>
       </c>
       <c r="I132" s="13">
-        <v>0.81510683760683755</v>
+        <v>0.815106837606837</v>
       </c>
       <c r="J132" s="5">
         <v>0.60670940170940102</v>
@@ -13542,16 +10245,16 @@
         <v>0.81845085470085399</v>
       </c>
       <c r="F133" s="5">
-        <v>0.81845085470085399</v>
+        <v>0.81901709401709399</v>
       </c>
       <c r="G133" s="8">
-        <v>0.59513888888888888</v>
+        <v>0.595138888888888</v>
       </c>
       <c r="H133" s="9">
-        <v>0.81233974358974359</v>
+        <v>0.81233974358974304</v>
       </c>
       <c r="I133" s="10">
-        <v>0.81547008547008548</v>
+        <v>0.81547008547008504</v>
       </c>
       <c r="J133" s="5">
         <v>0.61329059829059795</v>
@@ -13616,16 +10319,16 @@
         <v>0.81935897435897398</v>
       </c>
       <c r="F134" s="5">
-        <v>0.81935897435897398</v>
+        <v>0.81957264957264897</v>
       </c>
       <c r="G134" s="11">
-        <v>0.60028846153846149</v>
+        <v>0.60028846153846105</v>
       </c>
       <c r="H134" s="12">
-        <v>0.81466880341880343</v>
+        <v>0.81466880341880299</v>
       </c>
       <c r="I134" s="13">
-        <v>0.8158867521367521</v>
+        <v>0.81588675213675199</v>
       </c>
       <c r="J134" s="5">
         <v>0.61910256410256403</v>
@@ -13690,16 +10393,16 @@
         <v>0.82024572649572602</v>
       </c>
       <c r="F135" s="5">
-        <v>0.82024572649572602</v>
+        <v>0.82020299145299103</v>
       </c>
       <c r="G135" s="8">
-        <v>0.60596153846153844</v>
+        <v>0.605961538461538</v>
       </c>
       <c r="H135" s="9">
-        <v>0.81611111111111112</v>
+        <v>0.81611111111111101</v>
       </c>
       <c r="I135" s="10">
-        <v>0.81637820512820514</v>
+        <v>0.81637820512820503</v>
       </c>
       <c r="J135" s="5">
         <v>0.62478632478632401</v>
@@ -13764,16 +10467,16 @@
         <v>0.82099358974358905</v>
       </c>
       <c r="F136" s="5">
-        <v>0.82099358974358905</v>
+        <v>0.82085470085470003</v>
       </c>
       <c r="G136" s="11">
-        <v>0.61208333333333331</v>
+        <v>0.61208333333333298</v>
       </c>
       <c r="H136" s="12">
-        <v>0.81711538461538458</v>
+        <v>0.81711538461538402</v>
       </c>
       <c r="I136" s="13">
-        <v>0.81685897435897437</v>
+        <v>0.81685897435897403</v>
       </c>
       <c r="J136" s="5">
         <v>0.63023504273504205</v>
@@ -13838,16 +10541,16 @@
         <v>0.82162393162393099</v>
       </c>
       <c r="F137" s="5">
-        <v>0.82162393162393099</v>
+        <v>0.82163461538461502</v>
       </c>
       <c r="G137" s="8">
-        <v>0.61778846153846156</v>
+        <v>0.61778846153846101</v>
       </c>
       <c r="H137" s="9">
         <v>0.81780982905982902</v>
       </c>
       <c r="I137" s="10">
-        <v>0.8173504273504274</v>
+        <v>0.81735042735042696</v>
       </c>
       <c r="J137" s="5">
         <v>0.63566239316239304</v>
@@ -13912,16 +10615,16 @@
         <v>0.82233974358974304</v>
       </c>
       <c r="F138" s="5">
-        <v>0.82233974358974304</v>
+        <v>0.82221153846153805</v>
       </c>
       <c r="G138" s="11">
-        <v>0.62362179487179492</v>
+        <v>0.62362179487179403</v>
       </c>
       <c r="H138" s="12">
         <v>0.81834401709401705</v>
       </c>
       <c r="I138" s="13">
-        <v>0.81798076923076923</v>
+        <v>0.81798076923076901</v>
       </c>
       <c r="J138" s="5">
         <v>0.64069444444444401</v>
@@ -13986,16 +10689,16 @@
         <v>0.82309829059828998</v>
       </c>
       <c r="F139" s="5">
-        <v>0.82309829059828998</v>
+        <v>0.82266025641025597</v>
       </c>
       <c r="G139" s="8">
-        <v>0.62982905982905979</v>
+        <v>0.62982905982905901</v>
       </c>
       <c r="H139" s="9">
-        <v>0.81889957264957269</v>
+        <v>0.81889957264957203</v>
       </c>
       <c r="I139" s="10">
-        <v>0.81860042735042737</v>
+        <v>0.81860042735042704</v>
       </c>
       <c r="J139" s="5">
         <v>0.64575854700854696</v>
@@ -14060,16 +10763,16 @@
         <v>0.823931623931623</v>
       </c>
       <c r="F140" s="5">
-        <v>0.823931623931623</v>
+        <v>0.82333333333333303</v>
       </c>
       <c r="G140" s="11">
-        <v>0.63579059829059825</v>
+        <v>0.63579059829059803</v>
       </c>
       <c r="H140" s="12">
-        <v>0.81964743589743594</v>
+        <v>0.81964743589743505</v>
       </c>
       <c r="I140" s="13">
-        <v>0.81933760683760681</v>
+        <v>0.81933760683760604</v>
       </c>
       <c r="J140" s="5">
         <v>0.65023504273504196</v>
@@ -14134,16 +10837,16 @@
         <v>0.824583333333333</v>
       </c>
       <c r="F141" s="5">
-        <v>0.824583333333333</v>
+        <v>0.823888888888888</v>
       </c>
       <c r="G141" s="8">
-        <v>0.64257478632478637</v>
+        <v>0.64257478632478604</v>
       </c>
       <c r="H141" s="9">
-        <v>0.82039529914529918</v>
+        <v>0.82039529914529896</v>
       </c>
       <c r="I141" s="10">
-        <v>0.82003205128205126</v>
+        <v>0.82003205128205103</v>
       </c>
       <c r="J141" s="5">
         <v>0.65501068376068305</v>
@@ -14208,16 +10911,16 @@
         <v>0.82511752136752103</v>
       </c>
       <c r="F142" s="5">
-        <v>0.82511752136752103</v>
+        <v>0.82451923076922995</v>
       </c>
       <c r="G142" s="11">
-        <v>0.64867521367521364</v>
+        <v>0.64867521367521297</v>
       </c>
       <c r="H142" s="12">
         <v>0.82102564102564102</v>
       </c>
       <c r="I142" s="13">
-        <v>0.82089743589743591</v>
+        <v>0.82089743589743502</v>
       </c>
       <c r="J142" s="5">
         <v>0.660160256410256</v>
@@ -14282,16 +10985,16 @@
         <v>0.82567307692307601</v>
       </c>
       <c r="F143" s="5">
-        <v>0.82567307692307601</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G143" s="8">
-        <v>0.65592948717948718</v>
+        <v>0.65592948717948696</v>
       </c>
       <c r="H143" s="9">
-        <v>0.82198717948717948</v>
+        <v>0.82198717948717903</v>
       </c>
       <c r="I143" s="10">
-        <v>0.82161324786324785</v>
+        <v>0.82161324786324696</v>
       </c>
       <c r="J143" s="5">
         <v>0.66606837606837599</v>
@@ -14356,16 +11059,16 @@
         <v>0.82639957264957198</v>
       </c>
       <c r="F144" s="5">
-        <v>0.82639957264957198</v>
+        <v>0.82537393162393102</v>
       </c>
       <c r="G144" s="11">
-        <v>0.66310897435897431</v>
+        <v>0.66310897435897398</v>
       </c>
       <c r="H144" s="12">
         <v>0.82280982905982902</v>
       </c>
       <c r="I144" s="13">
-        <v>0.82259615384615381</v>
+        <v>0.82259615384615303</v>
       </c>
       <c r="J144" s="5">
         <v>0.67222222222222205</v>
@@ -14430,16 +11133,16 @@
         <v>0.82695512820512795</v>
       </c>
       <c r="F145" s="5">
-        <v>0.82695512820512795</v>
+        <v>0.825886752136752</v>
       </c>
       <c r="G145" s="8">
-        <v>0.67069444444444448</v>
+        <v>0.67069444444444404</v>
       </c>
       <c r="H145" s="9">
-        <v>0.82386752136752139</v>
+        <v>0.82386752136752095</v>
       </c>
       <c r="I145" s="10">
-        <v>0.82335470085470086</v>
+        <v>0.82335470085469997</v>
       </c>
       <c r="J145" s="5">
         <v>0.67799145299145303</v>
@@ -14504,16 +11207,16 @@
         <v>0.82763888888888804</v>
       </c>
       <c r="F146" s="5">
-        <v>0.82763888888888804</v>
+        <v>0.82634615384615295</v>
       </c>
       <c r="G146" s="11">
-        <v>0.67801282051282052</v>
+        <v>0.67801282051281997</v>
       </c>
       <c r="H146" s="12">
-        <v>0.82485042735042735</v>
+        <v>0.82485042735042702</v>
       </c>
       <c r="I146" s="13">
-        <v>0.82415598290598291</v>
+        <v>0.82415598290598202</v>
       </c>
       <c r="J146" s="5">
         <v>0.68429487179487103</v>
@@ -14578,16 +11281,16 @@
         <v>0.82825854700854695</v>
       </c>
       <c r="F147" s="5">
-        <v>0.82825854700854695</v>
+        <v>0.82691239316239296</v>
       </c>
       <c r="G147" s="8">
         <v>0.68491452991452995</v>
       </c>
       <c r="H147" s="9">
-        <v>0.8256517094017094</v>
+        <v>0.82565170940170896</v>
       </c>
       <c r="I147" s="10">
-        <v>0.82508547008547006</v>
+        <v>0.82508547008546995</v>
       </c>
       <c r="J147" s="5">
         <v>0.69081196581196502</v>
@@ -14652,16 +11355,16 @@
         <v>0.82877136752136704</v>
       </c>
       <c r="F148" s="5">
-        <v>0.82877136752136704</v>
+        <v>0.82753205128205098</v>
       </c>
       <c r="G148" s="11">
-        <v>0.69134615384615383</v>
+        <v>0.69134615384615306</v>
       </c>
       <c r="H148" s="12">
         <v>0.82674145299145296</v>
       </c>
       <c r="I148" s="13">
-        <v>0.82596153846153841</v>
+        <v>0.82596153846153797</v>
       </c>
       <c r="J148" s="5">
         <v>0.69757478632478598</v>
@@ -14726,16 +11429,16 @@
         <v>0.82929487179487105</v>
       </c>
       <c r="F149" s="5">
-        <v>0.82929487179487105</v>
+        <v>0.82794871794871705</v>
       </c>
       <c r="G149" s="8">
-        <v>0.69815170940170945</v>
+        <v>0.69815170940170901</v>
       </c>
       <c r="H149" s="9">
-        <v>0.82763888888888892</v>
+        <v>0.82763888888888804</v>
       </c>
       <c r="I149" s="10">
-        <v>0.82694444444444448</v>
+        <v>0.82694444444444404</v>
       </c>
       <c r="J149" s="5">
         <v>0.70474358974358897</v>
@@ -14800,16 +11503,16 @@
         <v>0.82978632478632397</v>
       </c>
       <c r="F150" s="5">
-        <v>0.82978632478632397</v>
+        <v>0.82829059829059803</v>
       </c>
       <c r="G150" s="11">
-        <v>0.7055235042735043</v>
+        <v>0.70552350427350397</v>
       </c>
       <c r="H150" s="12">
-        <v>0.82862179487179488</v>
+        <v>0.82862179487179399</v>
       </c>
       <c r="I150" s="13">
-        <v>0.82778846153846153</v>
+        <v>0.82778846153846097</v>
       </c>
       <c r="J150" s="5">
         <v>0.71151709401709395</v>
@@ -14874,16 +11577,16 @@
         <v>0.83030982905982897</v>
       </c>
       <c r="F151" s="5">
-        <v>0.83030982905982897</v>
+        <v>0.82887820512820498</v>
       </c>
       <c r="G151" s="8">
-        <v>0.71323717948717946</v>
+        <v>0.71323717948717902</v>
       </c>
       <c r="H151" s="9">
-        <v>0.82963675213675214</v>
+        <v>0.82963675213675203</v>
       </c>
       <c r="I151" s="10">
-        <v>0.82864316239316238</v>
+        <v>0.82864316239316205</v>
       </c>
       <c r="J151" s="5">
         <v>0.72002136752136703</v>
@@ -14948,16 +11651,16 @@
         <v>0.83082264957264895</v>
       </c>
       <c r="F152" s="5">
-        <v>0.83082264957264895</v>
+        <v>0.82947649572649496</v>
       </c>
       <c r="G152" s="11">
-        <v>0.72127136752136756</v>
+        <v>0.721271367521367</v>
       </c>
       <c r="H152" s="12">
-        <v>0.8305021367521368</v>
+        <v>0.83050213675213602</v>
       </c>
       <c r="I152" s="13">
-        <v>0.82939102564102563</v>
+        <v>0.82939102564102496</v>
       </c>
       <c r="J152" s="5">
         <v>0.72809829059829001</v>
@@ -15022,16 +11725,16 @@
         <v>0.83123931623931602</v>
       </c>
       <c r="F153" s="5">
-        <v>0.83123931623931602</v>
+        <v>0.83002136752136702</v>
       </c>
       <c r="G153" s="8">
-        <v>0.72964743589743586</v>
+        <v>0.72964743589743497</v>
       </c>
       <c r="H153" s="9">
-        <v>0.83132478632478635</v>
+        <v>0.83132478632478601</v>
       </c>
       <c r="I153" s="10">
-        <v>0.83016025641025637</v>
+        <v>0.83016025641025604</v>
       </c>
       <c r="J153" s="5">
         <v>0.73595085470085397</v>
@@ -15096,16 +11799,16 @@
         <v>0.83186965811965796</v>
       </c>
       <c r="F154" s="5">
-        <v>0.83186965811965796</v>
+        <v>0.83065170940170896</v>
       </c>
       <c r="G154" s="11">
-        <v>0.73868589743589741</v>
+        <v>0.73868589743589697</v>
       </c>
       <c r="H154" s="12">
-        <v>0.83211538461538459</v>
+        <v>0.83211538461538403</v>
       </c>
       <c r="I154" s="13">
-        <v>0.83085470085470081</v>
+        <v>0.83085470085470003</v>
       </c>
       <c r="J154" s="5">
         <v>0.74332264957264904</v>
@@ -15170,16 +11873,16 @@
         <v>0.83235042735042697</v>
       </c>
       <c r="F155" s="5">
-        <v>0.83235042735042697</v>
+        <v>0.83129273504273504</v>
       </c>
       <c r="G155" s="8">
-        <v>0.74762820512820516</v>
+        <v>0.74762820512820505</v>
       </c>
       <c r="H155" s="9">
         <v>0.83307692307692305</v>
       </c>
       <c r="I155" s="10">
-        <v>0.83175213675213677</v>
+        <v>0.831752136752136</v>
       </c>
       <c r="J155" s="5">
         <v>0.75149572649572605</v>
@@ -15244,16 +11947,16 @@
         <v>0.83290598290598306</v>
       </c>
       <c r="F156" s="5">
-        <v>0.83290598290598306</v>
+        <v>0.83173076923076905</v>
       </c>
       <c r="G156" s="11">
-        <v>0.75639957264957269</v>
+        <v>0.75639957264957203</v>
       </c>
       <c r="H156" s="12">
-        <v>0.83427350427350422</v>
+        <v>0.834273504273504</v>
       </c>
       <c r="I156" s="13">
-        <v>0.83255341880341882</v>
+        <v>0.83255341880341804</v>
       </c>
       <c r="J156" s="5">
         <v>0.75909188034188002</v>
@@ -15318,16 +12021,16 @@
         <v>0.83348290598290597</v>
       </c>
       <c r="F157" s="5">
-        <v>0.83348290598290597</v>
+        <v>0.83230769230769197</v>
       </c>
       <c r="G157" s="8">
         <v>0.76567307692307696</v>
       </c>
       <c r="H157" s="9">
-        <v>0.83545940170940169</v>
+        <v>0.83545940170940103</v>
       </c>
       <c r="I157" s="10">
-        <v>0.83351495726495728</v>
+        <v>0.83351495726495695</v>
       </c>
       <c r="J157" s="5">
         <v>0.766645299145299</v>
@@ -15392,16 +12095,16 @@
         <v>0.83405982905982901</v>
       </c>
       <c r="F158" s="5">
-        <v>0.83405982905982901</v>
+        <v>0.83285256410256403</v>
       </c>
       <c r="G158" s="11">
-        <v>0.77627136752136749</v>
+        <v>0.77627136752136705</v>
       </c>
       <c r="H158" s="12">
-        <v>0.83659188034188037</v>
+        <v>0.83659188034188003</v>
       </c>
       <c r="I158" s="13">
-        <v>0.83447649572649574</v>
+        <v>0.83447649572649496</v>
       </c>
       <c r="J158" s="5">
         <v>0.77473290598290601</v>
@@ -15466,16 +12169,16 @@
         <v>0.83478632478632397</v>
       </c>
       <c r="F159" s="5">
-        <v>0.83478632478632397</v>
+        <v>0.83367521367521302</v>
       </c>
       <c r="G159" s="8">
-        <v>0.78648504273504272</v>
+        <v>0.78648504273504205</v>
       </c>
       <c r="H159" s="9">
-        <v>0.83782051282051284</v>
+        <v>0.83782051282051195</v>
       </c>
       <c r="I159" s="10">
-        <v>0.83568376068376071</v>
+        <v>0.83568376068376005</v>
       </c>
       <c r="J159" s="5">
         <v>0.78408119658119602</v>
@@ -15540,10 +12243,10 @@
         <v>0.83529914529914495</v>
       </c>
       <c r="F160" s="5">
-        <v>0.83529914529914495</v>
+        <v>0.83422008547008497</v>
       </c>
       <c r="G160" s="11">
-        <v>0.79691239316239315</v>
+        <v>0.79691239316239304</v>
       </c>
       <c r="H160" s="12">
         <v>0.83924145299145303</v>
@@ -15614,16 +12317,16 @@
         <v>0.83600427350427298</v>
       </c>
       <c r="F161" s="5">
-        <v>0.83600427350427298</v>
+        <v>0.834882478632478</v>
       </c>
       <c r="G161" s="8">
-        <v>0.80608974358974361</v>
+        <v>0.80608974358974295</v>
       </c>
       <c r="H161" s="9">
-        <v>0.84068376068376072</v>
+        <v>0.84068376068376005</v>
       </c>
       <c r="I161" s="10">
-        <v>0.83805555555555555</v>
+        <v>0.838055555555555</v>
       </c>
       <c r="J161" s="5">
         <v>0.80276709401709401</v>
@@ -15688,16 +12391,16 @@
         <v>0.83672008547008503</v>
       </c>
       <c r="F162" s="5">
-        <v>0.83672008547008503</v>
+        <v>0.83551282051282005</v>
       </c>
       <c r="G162" s="11">
-        <v>0.81567307692307689</v>
+        <v>0.815673076923076</v>
       </c>
       <c r="H162" s="12">
-        <v>0.84197649572649569</v>
+        <v>0.84197649572649502</v>
       </c>
       <c r="I162" s="13">
-        <v>0.83960470085470085</v>
+        <v>0.83960470085469996</v>
       </c>
       <c r="J162" s="5">
         <v>0.81104700854700795</v>
@@ -15762,16 +12465,16 @@
         <v>0.83746794871794805</v>
       </c>
       <c r="F163" s="5">
-        <v>0.83746794871794805</v>
+        <v>0.83615384615384603</v>
       </c>
       <c r="G163" s="8">
-        <v>0.8239423076923077</v>
+        <v>0.82394230769230703</v>
       </c>
       <c r="H163" s="9">
-        <v>0.84314102564102567</v>
+        <v>0.843141025641025</v>
       </c>
       <c r="I163" s="10">
-        <v>0.84119658119658125</v>
+        <v>0.84119658119658103</v>
       </c>
       <c r="J163" s="5">
         <v>0.81877136752136703</v>
@@ -15836,13 +12539,13 @@
         <v>0.83818376068375999</v>
       </c>
       <c r="F164" s="5">
-        <v>0.83818376068375999</v>
+        <v>0.83705128205128199</v>
       </c>
       <c r="G164" s="11">
-        <v>0.83136752136752134</v>
+        <v>0.83136752136752101</v>
       </c>
       <c r="H164" s="12">
-        <v>0.84447649572649575</v>
+        <v>0.84447649572649497</v>
       </c>
       <c r="I164" s="13">
         <v>0.84276709401709404</v>
@@ -15910,16 +12613,16 @@
         <v>0.83925213675213595</v>
       </c>
       <c r="F165" s="5">
-        <v>0.83925213675213595</v>
+        <v>0.83786324786324695</v>
       </c>
       <c r="G165" s="8">
-        <v>0.83854700854700859</v>
+        <v>0.83854700854700803</v>
       </c>
       <c r="H165" s="9">
-        <v>0.84579059829059833</v>
+        <v>0.84579059829059799</v>
       </c>
       <c r="I165" s="10">
-        <v>0.84413461538461543</v>
+        <v>0.84413461538461498</v>
       </c>
       <c r="J165" s="5">
         <v>0.83584401709401701</v>
@@ -15984,16 +12687,16 @@
         <v>0.84038461538461495</v>
       </c>
       <c r="F166" s="5">
-        <v>0.84038461538461495</v>
+        <v>0.83883547008546999</v>
       </c>
       <c r="G166" s="11">
-        <v>0.84577991452991452</v>
+        <v>0.84577991452991397</v>
       </c>
       <c r="H166" s="12">
         <v>0.84750000000000003</v>
       </c>
       <c r="I166" s="13">
-        <v>0.8454380341880342</v>
+        <v>0.84543803418803398</v>
       </c>
       <c r="J166" s="5">
         <v>0.84411324786324704</v>
@@ -16058,16 +12761,16 @@
         <v>0.84217948717948699</v>
       </c>
       <c r="F167" s="5">
-        <v>0.84217948717948699</v>
+        <v>0.84019230769230702</v>
       </c>
       <c r="G167" s="8">
-        <v>0.8518589743589744</v>
+        <v>0.85185897435897395</v>
       </c>
       <c r="H167" s="9">
-        <v>0.84988247863247868</v>
+        <v>0.84988247863247801</v>
       </c>
       <c r="I167" s="10">
-        <v>0.84738247863247862</v>
+        <v>0.84738247863247795</v>
       </c>
       <c r="J167" s="5">
         <v>0.85240384615384601</v>
@@ -16132,16 +12835,16 @@
         <v>0.84457264957264899</v>
       </c>
       <c r="F168" s="5">
-        <v>0.84457264957264899</v>
+        <v>0.84177350427350395</v>
       </c>
       <c r="G168" s="11">
-        <v>0.85735042735042732</v>
+        <v>0.85735042735042699</v>
       </c>
       <c r="H168" s="12">
-        <v>0.85236111111111112</v>
+        <v>0.85236111111111101</v>
       </c>
       <c r="I168" s="13">
-        <v>0.84987179487179487</v>
+        <v>0.84987179487179398</v>
       </c>
       <c r="J168" s="5">
         <v>0.86131410256410201</v>
@@ -16206,16 +12909,16 @@
         <v>0.84710470085470002</v>
       </c>
       <c r="F169" s="5">
-        <v>0.84710470085470002</v>
+        <v>0.84361111111111098</v>
       </c>
       <c r="G169" s="8">
-        <v>0.8634722222222222</v>
+        <v>0.86347222222222197</v>
       </c>
       <c r="H169" s="9">
-        <v>0.85543803418803421</v>
+        <v>0.85543803418803399</v>
       </c>
       <c r="I169" s="10">
-        <v>0.85246794871794873</v>
+        <v>0.85246794871794795</v>
       </c>
       <c r="J169" s="5">
         <v>0.86992521367521303</v>
@@ -16280,16 +12983,16 @@
         <v>0.84980769230769204</v>
       </c>
       <c r="F170" s="5">
-        <v>0.84980769230769204</v>
+        <v>0.84629273504273494</v>
       </c>
       <c r="G170" s="11">
-        <v>0.86939102564102566</v>
+        <v>0.86939102564102499</v>
       </c>
       <c r="H170" s="12">
-        <v>0.85882478632478632</v>
+        <v>0.85882478632478598</v>
       </c>
       <c r="I170" s="13">
-        <v>0.85530982905982911</v>
+        <v>0.855309829059829</v>
       </c>
       <c r="J170" s="5">
         <v>0.87849358974358904</v>
@@ -16354,13 +13057,13 @@
         <v>0.85269230769230697</v>
       </c>
       <c r="F171" s="5">
-        <v>0.85269230769230697</v>
+        <v>0.84834401709401697</v>
       </c>
       <c r="G171" s="8">
-        <v>0.8750534188034188</v>
+        <v>0.87505341880341803</v>
       </c>
       <c r="H171" s="9">
-        <v>0.86266025641025645</v>
+        <v>0.86266025641025601</v>
       </c>
       <c r="I171" s="10">
         <v>0.85821581196581198</v>
@@ -16428,13 +13131,13 @@
         <v>0.85478632478632399</v>
       </c>
       <c r="F172" s="5">
-        <v>0.85478632478632399</v>
+        <v>0.85053418803418801</v>
       </c>
       <c r="G172" s="11">
         <v>0.88098290598290596</v>
       </c>
       <c r="H172" s="12">
-        <v>0.86584401709401715</v>
+        <v>0.86584401709401704</v>
       </c>
       <c r="I172" s="13">
         <v>0.86143162393162398</v>
@@ -16502,16 +13205,16 @@
         <v>0.856442307692307</v>
       </c>
       <c r="F173" s="5">
-        <v>0.856442307692307</v>
+        <v>0.85277777777777697</v>
       </c>
       <c r="G173" s="8">
-        <v>0.8865918803418803</v>
+        <v>0.88659188034187997</v>
       </c>
       <c r="H173" s="9">
-        <v>0.86850427350427351</v>
+        <v>0.86850427350427295</v>
       </c>
       <c r="I173" s="10">
-        <v>0.86394230769230773</v>
+        <v>0.86394230769230695</v>
       </c>
       <c r="J173" s="5">
         <v>0.89913461538461503</v>
@@ -16576,16 +13279,16 @@
         <v>0.85845085470085403</v>
       </c>
       <c r="F174" s="5">
-        <v>0.85845085470085403</v>
+        <v>0.85458333333333303</v>
       </c>
       <c r="G174" s="11">
-        <v>0.89261752136752137</v>
+        <v>0.89261752136752104</v>
       </c>
       <c r="H174" s="12">
-        <v>0.87068376068376063</v>
+        <v>0.87068376068375997</v>
       </c>
       <c r="I174" s="13">
-        <v>0.86639957264957268</v>
+        <v>0.86639957264957201</v>
       </c>
       <c r="J174" s="5">
         <v>0.90409188034188004</v>
@@ -16650,16 +13353,16 @@
         <v>0.86098290598290494</v>
       </c>
       <c r="F175" s="5">
-        <v>0.86098290598290494</v>
+        <v>0.85605769230769202</v>
       </c>
       <c r="G175" s="8">
-        <v>0.89783119658119659</v>
+        <v>0.89783119658119603</v>
       </c>
       <c r="H175" s="9">
-        <v>0.87262820512820516</v>
+        <v>0.87262820512820505</v>
       </c>
       <c r="I175" s="10">
-        <v>0.86855769230769231</v>
+        <v>0.86855769230769198</v>
       </c>
       <c r="J175" s="5">
         <v>0.90842948717948702</v>
@@ -16724,16 +13427,16 @@
         <v>0.86417735042735</v>
       </c>
       <c r="F176" s="5">
-        <v>0.86417735042735</v>
+        <v>0.85719017094017003</v>
       </c>
       <c r="G176" s="11">
-        <v>0.90229700854700856</v>
+        <v>0.90229700854700801</v>
       </c>
       <c r="H176" s="12">
-        <v>0.87456196581196577</v>
+        <v>0.87456196581196499</v>
       </c>
       <c r="I176" s="13">
-        <v>0.87040598290598292</v>
+        <v>0.87040598290598203</v>
       </c>
       <c r="J176" s="5">
         <v>0.91227564102564096</v>
@@ -16798,16 +13501,16 @@
         <v>0.86768162393162396</v>
       </c>
       <c r="F177" s="5">
-        <v>0.86768162393162396</v>
+        <v>0.85824786324786295</v>
       </c>
       <c r="G177" s="8">
-        <v>0.90676282051282053</v>
+        <v>0.90676282051281998</v>
       </c>
       <c r="H177" s="9">
-        <v>0.87702991452991452</v>
+        <v>0.87702991452991397</v>
       </c>
       <c r="I177" s="10">
-        <v>0.87222222222222223</v>
+        <v>0.87222222222222201</v>
       </c>
       <c r="J177" s="5">
         <v>0.91574786324786295</v>
@@ -16872,16 +13575,16 @@
         <v>0.87224358974358895</v>
       </c>
       <c r="F178" s="5">
-        <v>0.87224358974358895</v>
+        <v>0.85952991452991401</v>
       </c>
       <c r="G178" s="11">
-        <v>0.91097222222222218</v>
+        <v>0.91097222222222196</v>
       </c>
       <c r="H178" s="12">
-        <v>0.87920940170940176</v>
+        <v>0.87920940170940098</v>
       </c>
       <c r="I178" s="13">
-        <v>0.87420940170940176</v>
+        <v>0.87420940170940098</v>
       </c>
       <c r="J178" s="5">
         <v>0.91915598290598199</v>
@@ -16946,16 +13649,16 @@
         <v>0.87624999999999997</v>
       </c>
       <c r="F179" s="5">
-        <v>0.87624999999999997</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="G179" s="8">
-        <v>0.91457264957264961</v>
+        <v>0.91457264957264905</v>
       </c>
       <c r="H179" s="9">
-        <v>0.88143162393162389</v>
+        <v>0.881431623931623</v>
       </c>
       <c r="I179" s="10">
-        <v>0.87603632478632476</v>
+        <v>0.87603632478632398</v>
       </c>
       <c r="J179" s="5">
         <v>0.92251068376068301</v>
@@ -17020,16 +13723,16 @@
         <v>0.87966880341880305</v>
       </c>
       <c r="F180" s="5">
-        <v>0.87966880341880305</v>
+        <v>0.86326923076923001</v>
       </c>
       <c r="G180" s="11">
-        <v>0.91817307692307693</v>
+        <v>0.91817307692307604</v>
       </c>
       <c r="H180" s="12">
-        <v>0.88394230769230764</v>
+        <v>0.88394230769230697</v>
       </c>
       <c r="I180" s="13">
-        <v>0.87762820512820516</v>
+        <v>0.87762820512820505</v>
       </c>
       <c r="J180" s="5">
         <v>0.92547008547008502</v>
@@ -17094,13 +13797,13 @@
         <v>0.88318376068376003</v>
       </c>
       <c r="F181" s="5">
-        <v>0.88318376068376003</v>
+        <v>0.86626068376068299</v>
       </c>
       <c r="G181" s="8">
-        <v>0.9211324786324786</v>
+        <v>0.92113247863247805</v>
       </c>
       <c r="H181" s="9">
-        <v>0.88698717948717953</v>
+        <v>0.88698717948717898</v>
       </c>
       <c r="I181" s="10">
         <v>0.87977564102564099</v>
@@ -17168,16 +13871,16 @@
         <v>0.88637820512820498</v>
       </c>
       <c r="F182" s="5">
-        <v>0.88637820512820498</v>
+        <v>0.86977564102564098</v>
       </c>
       <c r="G182" s="11">
-        <v>0.9244230769230769</v>
+        <v>0.92442307692307601</v>
       </c>
       <c r="H182" s="12">
-        <v>0.89052350427350424</v>
+        <v>0.89052350427350402</v>
       </c>
       <c r="I182" s="13">
-        <v>0.88206196581196583</v>
+        <v>0.88206196581196505</v>
       </c>
       <c r="J182" s="5">
         <v>0.93179487179487097</v>
@@ -17242,16 +13945,16 @@
         <v>0.88929487179487099</v>
       </c>
       <c r="F183" s="5">
-        <v>0.88929487179487099</v>
+        <v>0.87464743589743499</v>
       </c>
       <c r="G183" s="8">
-        <v>0.92786324786324781</v>
+        <v>0.92786324786324703</v>
       </c>
       <c r="H183" s="9">
-        <v>0.8946794871794872</v>
+        <v>0.89467948717948698</v>
       </c>
       <c r="I183" s="10">
-        <v>0.88464743589743589</v>
+        <v>0.884647435897435</v>
       </c>
       <c r="J183" s="5">
         <v>0.93568376068376002</v>
@@ -17316,16 +14019,16 @@
         <v>0.89243589743589702</v>
       </c>
       <c r="F184" s="5">
-        <v>0.89243589743589702</v>
+        <v>0.87884615384615306</v>
       </c>
       <c r="G184" s="11">
-        <v>0.93150641025641023</v>
+        <v>0.93150641025641001</v>
       </c>
       <c r="H184" s="12">
         <v>0.89852564102564103</v>
       </c>
       <c r="I184" s="13">
-        <v>0.88785256410256408</v>
+        <v>0.88785256410256397</v>
       </c>
       <c r="J184" s="5">
         <v>0.93956196581196505</v>
@@ -17390,16 +14093,16 @@
         <v>0.89517094017094001</v>
       </c>
       <c r="F185" s="5">
-        <v>0.89517094017094001</v>
+        <v>0.882777777777777</v>
       </c>
       <c r="G185" s="8">
-        <v>0.93554487179487178</v>
+        <v>0.935544871794871</v>
       </c>
       <c r="H185" s="9">
-        <v>0.90269230769230768</v>
+        <v>0.90269230769230702</v>
       </c>
       <c r="I185" s="10">
-        <v>0.89175213675213671</v>
+        <v>0.89175213675213605</v>
       </c>
       <c r="J185" s="5">
         <v>0.94446581196581103</v>
@@ -17464,16 +14167,16 @@
         <v>0.89770299145299104</v>
       </c>
       <c r="F186" s="5">
-        <v>0.89770299145299104</v>
+        <v>0.88649572649572606</v>
       </c>
       <c r="G186" s="11">
-        <v>0.93986111111111115</v>
+        <v>0.93986111111111104</v>
       </c>
       <c r="H186" s="12">
         <v>0.90682692307692303</v>
       </c>
       <c r="I186" s="13">
-        <v>0.89608974358974358</v>
+        <v>0.89608974358974303</v>
       </c>
       <c r="J186" s="5">
         <v>0.95116452991452904</v>
@@ -17538,16 +14241,16 @@
         <v>0.89988247863247794</v>
       </c>
       <c r="F187" s="5">
-        <v>0.89988247863247794</v>
+        <v>0.89011752136752098</v>
       </c>
       <c r="G187" s="8">
-        <v>0.94504273504273506</v>
+        <v>0.94504273504273495</v>
       </c>
       <c r="H187" s="9">
-        <v>0.91070512820512817</v>
+        <v>0.91070512820512795</v>
       </c>
       <c r="I187" s="10">
-        <v>0.90056623931623936</v>
+        <v>0.90056623931623903</v>
       </c>
       <c r="J187" s="5">
         <v>0.959925213675213</v>
@@ -17612,16 +14315,16 @@
         <v>0.90202991452991399</v>
       </c>
       <c r="F188" s="5">
-        <v>0.90202991452991399</v>
+        <v>0.89326923076923004</v>
       </c>
       <c r="G188" s="11">
-        <v>0.95179487179487177</v>
+        <v>0.95179487179487099</v>
       </c>
       <c r="H188" s="12">
-        <v>0.9144123931623932</v>
+        <v>0.91441239316239298</v>
       </c>
       <c r="I188" s="13">
-        <v>0.90495726495726492</v>
+        <v>0.90495726495726403</v>
       </c>
       <c r="J188" s="5">
         <v>0.96710470085470002</v>
@@ -17686,16 +14389,16 @@
         <v>0.903814102564102</v>
       </c>
       <c r="F189" s="5">
-        <v>0.903814102564102</v>
+        <v>0.89632478632478596</v>
       </c>
       <c r="G189" s="8">
-        <v>0.95942307692307693</v>
+        <v>0.95942307692307605</v>
       </c>
       <c r="H189" s="9">
-        <v>0.91788461538461541</v>
+        <v>0.91788461538461497</v>
       </c>
       <c r="I189" s="10">
-        <v>0.90909188034188038</v>
+        <v>0.90909188034188004</v>
       </c>
       <c r="J189" s="5">
         <v>0.97386752136752097</v>
@@ -17760,16 +14463,16 @@
         <v>0.90611111111111098</v>
       </c>
       <c r="F190" s="5">
-        <v>0.90611111111111098</v>
+        <v>0.89878205128205102</v>
       </c>
       <c r="G190" s="11">
-        <v>0.96766025641025644</v>
+        <v>0.96766025641025599</v>
       </c>
       <c r="H190" s="12">
-        <v>0.92158119658119653</v>
+        <v>0.92158119658119597</v>
       </c>
       <c r="I190" s="13">
-        <v>0.9128098290598291</v>
+        <v>0.91280982905982899</v>
       </c>
       <c r="J190" s="5">
         <v>0.979049145299145</v>
@@ -17834,16 +14537,16 @@
         <v>0.91025641025641002</v>
       </c>
       <c r="F191" s="5">
-        <v>0.91025641025641002</v>
+        <v>0.90090811965811901</v>
       </c>
       <c r="G191" s="8">
-        <v>0.97465811965811966</v>
+        <v>0.97465811965811899</v>
       </c>
       <c r="H191" s="9">
-        <v>0.92516025641025645</v>
+        <v>0.92516025641025601</v>
       </c>
       <c r="I191" s="10">
-        <v>0.91632478632478631</v>
+        <v>0.91632478632478598</v>
       </c>
       <c r="J191" s="5">
         <v>0.98415598290598205</v>
@@ -17908,16 +14611,16 @@
         <v>0.91817307692307604</v>
       </c>
       <c r="F192" s="5">
-        <v>0.91817307692307604</v>
+        <v>0.90314102564102505</v>
       </c>
       <c r="G192" s="11">
-        <v>0.97978632478632477</v>
+        <v>0.97978632478632399</v>
       </c>
       <c r="H192" s="12">
         <v>0.92950854700854701</v>
       </c>
       <c r="I192" s="13">
-        <v>0.92005341880341884</v>
+        <v>0.92005341880341796</v>
       </c>
       <c r="J192" s="5">
         <v>0.98814102564102502</v>
@@ -17982,16 +14685,16 @@
         <v>0.93095085470085404</v>
       </c>
       <c r="F193" s="5">
-        <v>0.93095085470085404</v>
+        <v>0.90537393162393098</v>
       </c>
       <c r="G193" s="8">
-        <v>0.98414529914529914</v>
+        <v>0.98414529914529902</v>
       </c>
       <c r="H193" s="9">
-        <v>0.93378205128205127</v>
+        <v>0.93378205128205105</v>
       </c>
       <c r="I193" s="10">
-        <v>0.92357905982905986</v>
+        <v>0.92357905982905897</v>
       </c>
       <c r="J193" s="5">
         <v>0.99180555555555505</v>
@@ -18056,16 +14759,16 @@
         <v>0.94569444444444395</v>
       </c>
       <c r="F194" s="5">
-        <v>0.94569444444444395</v>
+        <v>0.90804487179487103</v>
       </c>
       <c r="G194" s="11">
-        <v>0.98836538461538459</v>
+        <v>0.98836538461538403</v>
       </c>
       <c r="H194" s="12">
-        <v>0.93802350427350423</v>
+        <v>0.93802350427350401</v>
       </c>
       <c r="I194" s="13">
-        <v>0.92721153846153848</v>
+        <v>0.92721153846153803</v>
       </c>
       <c r="J194" s="5">
         <v>0.99525641025640998</v>
@@ -18130,16 +14833,16 @@
         <v>0.95773504273504195</v>
       </c>
       <c r="F195" s="5">
-        <v>0.95773504273504195</v>
+        <v>0.91285256410256399</v>
       </c>
       <c r="G195" s="8">
-        <v>0.99233974358974364</v>
+        <v>0.99233974358974297</v>
       </c>
       <c r="H195" s="9">
-        <v>0.94329059829059825</v>
+        <v>0.94329059829059803</v>
       </c>
       <c r="I195" s="10">
-        <v>0.93081196581196579</v>
+        <v>0.93081196581196501</v>
       </c>
       <c r="J195" s="5">
         <v>0.99794871794871798</v>
@@ -18204,16 +14907,16 @@
         <v>0.965534188034188</v>
       </c>
       <c r="F196" s="5">
-        <v>0.965534188034188</v>
+        <v>0.92110042735042696</v>
       </c>
       <c r="G196" s="11">
         <v>0.99584401709401704</v>
       </c>
       <c r="H196" s="12">
-        <v>0.94941239316239312</v>
+        <v>0.94941239316239301</v>
       </c>
       <c r="I196" s="13">
-        <v>0.93498931623931625</v>
+        <v>0.93498931623931603</v>
       </c>
       <c r="J196" s="5">
         <v>0.99925213675213598</v>
@@ -18278,16 +14981,16 @@
         <v>0.97185897435897395</v>
       </c>
       <c r="F197" s="5">
-        <v>0.97185897435897395</v>
+        <v>0.93190170940170902</v>
       </c>
       <c r="G197" s="8">
-        <v>0.99811965811965808</v>
+        <v>0.99811965811965797</v>
       </c>
       <c r="H197" s="9">
-        <v>0.95652777777777775</v>
+        <v>0.95652777777777698</v>
       </c>
       <c r="I197" s="10">
-        <v>0.93909188034188029</v>
+        <v>0.93909188034187996</v>
       </c>
       <c r="J197" s="5">
         <v>0.99975427350427304</v>
@@ -18352,16 +15055,16 @@
         <v>0.97856837606837599</v>
       </c>
       <c r="F198" s="5">
-        <v>0.97856837606837599</v>
+        <v>0.94404914529914497</v>
       </c>
       <c r="G198" s="11">
-        <v>0.99917735042735045</v>
+        <v>0.99917735042735001</v>
       </c>
       <c r="H198" s="12">
-        <v>0.96512820512820507</v>
+        <v>0.96512820512820496</v>
       </c>
       <c r="I198" s="13">
-        <v>0.94418803418803421</v>
+        <v>0.94418803418803399</v>
       </c>
       <c r="J198" s="5">
         <v>0.99994658119658097</v>
@@ -18426,16 +15129,16 @@
         <v>0.98536324786324703</v>
       </c>
       <c r="F199" s="5">
-        <v>0.98536324786324703</v>
+        <v>0.95430555555555496</v>
       </c>
       <c r="G199" s="8">
-        <v>0.99970085470085468</v>
+        <v>0.99970085470085401</v>
       </c>
       <c r="H199" s="9">
-        <v>0.97335470085470088</v>
+        <v>0.97335470085469999</v>
       </c>
       <c r="I199" s="10">
-        <v>0.94926282051282052</v>
+        <v>0.94926282051281996</v>
       </c>
       <c r="J199" s="5">
         <v>1</v>
@@ -18500,13 +15203,13 @@
         <v>0.99042735042734997</v>
       </c>
       <c r="F200" s="5">
-        <v>0.99042735042734997</v>
+        <v>0.96206196581196501</v>
       </c>
       <c r="G200" s="11">
-        <v>0.9999465811965812</v>
+        <v>0.99994658119658097</v>
       </c>
       <c r="H200" s="12">
-        <v>0.97936965811965815</v>
+        <v>0.97936965811965804</v>
       </c>
       <c r="I200" s="13">
         <v>0.95606837606837602</v>
@@ -18574,16 +15277,16 @@
         <v>0.99393162393162304</v>
       </c>
       <c r="F201" s="5">
-        <v>0.99393162393162304</v>
+        <v>0.96854700854700804</v>
       </c>
       <c r="G201" s="8">
-        <v>0.9999786324786325</v>
+        <v>0.99997863247863195</v>
       </c>
       <c r="H201" s="9">
-        <v>0.98439102564102565</v>
+        <v>0.98439102564102499</v>
       </c>
       <c r="I201" s="10">
-        <v>0.96440170940170944</v>
+        <v>0.964401709401709</v>
       </c>
       <c r="J201" s="5">
         <v>1</v>
@@ -18648,16 +15351,16 @@
         <v>0.99528846153846096</v>
       </c>
       <c r="F202" s="5">
-        <v>0.99528846153846096</v>
+        <v>0.97533119658119605</v>
       </c>
       <c r="G202" s="11">
         <v>1</v>
       </c>
       <c r="H202" s="12">
-        <v>0.98887820512820512</v>
+        <v>0.98887820512820501</v>
       </c>
       <c r="I202" s="13">
-        <v>0.9721367521367521</v>
+        <v>0.97213675213675199</v>
       </c>
       <c r="J202" s="5">
         <v>1</v>
@@ -18722,16 +15425,16 @@
         <v>0.99568376068375997</v>
       </c>
       <c r="F203" s="5">
-        <v>0.99568376068375997</v>
+        <v>0.98210470085470003</v>
       </c>
       <c r="G203" s="8">
         <v>1</v>
       </c>
       <c r="H203" s="9">
-        <v>0.99298076923076928</v>
+        <v>0.99298076923076894</v>
       </c>
       <c r="I203" s="10">
-        <v>0.9786111111111111</v>
+        <v>0.97861111111111099</v>
       </c>
       <c r="J203" s="5">
         <v>1</v>
@@ -18796,16 +15499,16 @@
         <v>0.99587606837606801</v>
       </c>
       <c r="F204" s="5">
-        <v>0.99587606837606801</v>
+        <v>0.98798076923076905</v>
       </c>
       <c r="G204" s="11">
         <v>1</v>
       </c>
       <c r="H204" s="12">
-        <v>0.99650641025641029</v>
+        <v>0.99650641025640996</v>
       </c>
       <c r="I204" s="13">
-        <v>0.98326923076923078</v>
+        <v>0.98326923076923001</v>
       </c>
       <c r="J204" s="5">
         <v>1</v>
@@ -18870,16 +15573,16 @@
         <v>0.99597222222222204</v>
       </c>
       <c r="F205" s="5">
-        <v>0.99597222222222204</v>
+        <v>0.99216880341880298</v>
       </c>
       <c r="G205" s="8">
         <v>1</v>
       </c>
       <c r="H205" s="9">
-        <v>0.99854700854700851</v>
+        <v>0.99854700854700795</v>
       </c>
       <c r="I205" s="10">
-        <v>0.98838675213675209</v>
+        <v>0.98838675213675198</v>
       </c>
       <c r="J205" s="5">
         <v>1</v>
@@ -18944,16 +15647,16 @@
         <v>0.99601495726495703</v>
       </c>
       <c r="F206" s="5">
-        <v>0.99601495726495703</v>
+        <v>0.99436965811965805</v>
       </c>
       <c r="G206" s="11">
         <v>1</v>
       </c>
       <c r="H206" s="12">
-        <v>0.99944444444444447</v>
+        <v>0.99944444444444402</v>
       </c>
       <c r="I206" s="13">
-        <v>0.99300213675213678</v>
+        <v>0.993002136752136</v>
       </c>
       <c r="J206" s="5">
         <v>1</v>
@@ -19018,16 +15721,16 @@
         <v>0.99603632478632398</v>
       </c>
       <c r="F207" s="5">
-        <v>0.99603632478632398</v>
+        <v>0.99537393162393095</v>
       </c>
       <c r="G207" s="8">
         <v>1</v>
       </c>
       <c r="H207" s="9">
-        <v>0.99981837606837609</v>
+        <v>0.99981837606837598</v>
       </c>
       <c r="I207" s="10">
-        <v>0.99655982905982909</v>
+        <v>0.99655982905982898</v>
       </c>
       <c r="J207" s="5">
         <v>1</v>
@@ -19092,16 +15795,16 @@
         <v>0.99606837606837595</v>
       </c>
       <c r="F208" s="5">
-        <v>0.99606837606837595</v>
+        <v>0.99575854700854705</v>
       </c>
       <c r="G208" s="11">
         <v>1</v>
       </c>
       <c r="H208" s="12">
-        <v>0.9999465811965812</v>
+        <v>0.99994658119658097</v>
       </c>
       <c r="I208" s="13">
-        <v>0.99850427350427351</v>
+        <v>0.99850427350427295</v>
       </c>
       <c r="J208" s="5">
         <v>1</v>
@@ -19166,16 +15869,16 @@
         <v>0.99610042735042703</v>
       </c>
       <c r="F209" s="5">
-        <v>0.99610042735042703</v>
+        <v>0.99592948717948704</v>
       </c>
       <c r="G209" s="8">
         <v>1</v>
       </c>
       <c r="H209" s="9">
-        <v>0.9999786324786325</v>
+        <v>0.99997863247863195</v>
       </c>
       <c r="I209" s="10">
-        <v>0.99945512820512816</v>
+        <v>0.99945512820512805</v>
       </c>
       <c r="J209" s="5">
         <v>1</v>
@@ -19240,7 +15943,7 @@
         <v>0.996132478632478</v>
       </c>
       <c r="F210" s="5">
-        <v>0.996132478632478</v>
+        <v>0.99597222222222204</v>
       </c>
       <c r="G210" s="11">
         <v>1</v>
@@ -19314,7 +16017,7 @@
         <v>0.99616452991452897</v>
       </c>
       <c r="F211" s="5">
-        <v>0.99616452991452897</v>
+        <v>0.99604700854700801</v>
       </c>
       <c r="G211" s="8">
         <v>1</v>
@@ -19323,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="10">
-        <v>0.9999465811965812</v>
+        <v>0.99994658119658097</v>
       </c>
       <c r="J211" s="5">
         <v>1</v>
@@ -19388,7 +16091,7 @@
         <v>0.99622863247863203</v>
       </c>
       <c r="F212" s="5">
-        <v>0.99622863247863203</v>
+        <v>0.99606837606837595</v>
       </c>
       <c r="G212" s="11">
         <v>1</v>
@@ -19397,7 +16100,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="13">
-        <v>0.9999679487179487</v>
+        <v>0.99996794871794803</v>
       </c>
       <c r="J212" s="5">
         <v>1</v>
@@ -19462,7 +16165,7 @@
         <v>0.996260683760683</v>
       </c>
       <c r="F213" s="5">
-        <v>0.996260683760683</v>
+        <v>0.99614316239316203</v>
       </c>
       <c r="G213" s="8">
         <v>1</v>
@@ -19536,7 +16239,7 @@
         <v>0.996260683760683</v>
       </c>
       <c r="F214" s="5">
-        <v>0.996260683760683</v>
+        <v>0.99620726495726497</v>
       </c>
       <c r="G214" s="11">
         <v>1</v>
@@ -19610,7 +16313,7 @@
         <v>0.99631410256410202</v>
       </c>
       <c r="F215" s="5">
-        <v>0.99631410256410202</v>
+        <v>0.99622863247863203</v>
       </c>
       <c r="G215" s="8">
         <v>1</v>
@@ -19684,7 +16387,7 @@
         <v>0.99633547008546997</v>
       </c>
       <c r="F216" s="5">
-        <v>0.99633547008546997</v>
+        <v>0.99623931623931605</v>
       </c>
       <c r="G216" s="11">
         <v>1</v>
@@ -19758,7 +16461,7 @@
         <v>0.99636752136752105</v>
       </c>
       <c r="F217" s="5">
-        <v>0.99636752136752105</v>
+        <v>0.99629273504273497</v>
       </c>
       <c r="G217" s="8">
         <v>1</v>
@@ -19832,7 +16535,7 @@
         <v>0.99641025641025605</v>
       </c>
       <c r="F218" s="5">
-        <v>0.99641025641025605</v>
+        <v>0.99631410256410202</v>
       </c>
       <c r="G218" s="11">
         <v>1</v>
@@ -19906,7 +16609,7 @@
         <v>0.99642094017093996</v>
       </c>
       <c r="F219" s="5">
-        <v>0.99642094017093996</v>
+        <v>0.99635683760683702</v>
       </c>
       <c r="G219" s="8">
         <v>1</v>
@@ -19980,7 +16683,7 @@
         <v>0.99644230769230702</v>
       </c>
       <c r="F220" s="5">
-        <v>0.99644230769230702</v>
+        <v>0.99638888888888799</v>
       </c>
       <c r="G220" s="11">
         <v>1</v>
@@ -20054,7 +16757,7 @@
         <v>0.99648504273504201</v>
       </c>
       <c r="F221" s="5">
-        <v>0.99648504273504201</v>
+        <v>0.99642094017093996</v>
       </c>
       <c r="G221" s="8">
         <v>1</v>
@@ -20128,7 +16831,7 @@
         <v>0.99651709401709399</v>
       </c>
       <c r="F222" s="5">
-        <v>0.99651709401709399</v>
+        <v>0.99645299145299104</v>
       </c>
       <c r="G222" s="11">
         <v>1</v>
@@ -20202,7 +16905,7 @@
         <v>0.99651709401709399</v>
       </c>
       <c r="F223" s="5">
-        <v>0.99651709401709399</v>
+        <v>0.99647435897435899</v>
       </c>
       <c r="G223" s="8">
         <v>1</v>
@@ -20276,7 +16979,7 @@
         <v>0.99655982905982898</v>
       </c>
       <c r="F224" s="5">
-        <v>0.99655982905982898</v>
+        <v>0.99651709401709399</v>
       </c>
       <c r="G224" s="11">
         <v>1</v>
@@ -20350,7 +17053,7 @@
         <v>0.99657051282051201</v>
       </c>
       <c r="F225" s="5">
-        <v>0.99657051282051201</v>
+        <v>0.99653846153846104</v>
       </c>
       <c r="G225" s="8">
         <v>1</v>
@@ -20424,7 +17127,7 @@
         <v>0.99662393162393104</v>
       </c>
       <c r="F226" s="5">
-        <v>0.99662393162393104</v>
+        <v>0.99658119658119604</v>
       </c>
       <c r="G226" s="11">
         <v>1</v>
@@ -20498,7 +17201,7 @@
         <v>0.99665598290598201</v>
       </c>
       <c r="F227" s="5">
-        <v>0.99665598290598201</v>
+        <v>0.99658119658119604</v>
       </c>
       <c r="G227" s="8">
         <v>1</v>
@@ -20572,7 +17275,7 @@
         <v>0.99666666666666603</v>
       </c>
       <c r="F228" s="5">
-        <v>0.99666666666666603</v>
+        <v>0.99662393162393104</v>
       </c>
       <c r="G228" s="11">
         <v>1</v>
@@ -20646,7 +17349,7 @@
         <v>0.99667735042734995</v>
       </c>
       <c r="F229" s="5">
-        <v>0.99667735042734995</v>
+        <v>0.99665598290598201</v>
       </c>
       <c r="G229" s="8">
         <v>1</v>
@@ -20720,7 +17423,7 @@
         <v>0.99669871794871701</v>
       </c>
       <c r="F230" s="5">
-        <v>0.99669871794871701</v>
+        <v>0.99666666666666603</v>
       </c>
       <c r="G230" s="11">
         <v>1</v>
@@ -20794,7 +17497,7 @@
         <v>0.99673076923076898</v>
       </c>
       <c r="F231" s="5">
-        <v>0.99673076923076898</v>
+        <v>0.99667735042734995</v>
       </c>
       <c r="G231" s="8">
         <v>1</v>
@@ -20868,7 +17571,7 @@
         <v>0.996741452991453</v>
       </c>
       <c r="F232" s="5">
-        <v>0.996741452991453</v>
+        <v>0.99669871794871701</v>
       </c>
       <c r="G232" s="11">
         <v>1</v>
@@ -20942,7 +17645,7 @@
         <v>0.99677350427350397</v>
       </c>
       <c r="F233" s="5">
-        <v>0.99677350427350397</v>
+        <v>0.99673076923076898</v>
       </c>
       <c r="G233" s="8">
         <v>1</v>
@@ -21016,7 +17719,7 @@
         <v>0.99679487179487103</v>
       </c>
       <c r="F234" s="5">
-        <v>0.99679487179487103</v>
+        <v>0.996741452991453</v>
       </c>
       <c r="G234" s="11">
         <v>1</v>
@@ -21090,7 +17793,7 @@
         <v>0.99681623931623897</v>
       </c>
       <c r="F235" s="5">
-        <v>0.99681623931623897</v>
+        <v>0.99677350427350397</v>
       </c>
       <c r="G235" s="8">
         <v>1</v>
@@ -21164,7 +17867,7 @@
         <v>0.99683760683760603</v>
       </c>
       <c r="F236" s="5">
-        <v>0.99683760683760603</v>
+        <v>0.99679487179487103</v>
       </c>
       <c r="G236" s="11">
         <v>1</v>
@@ -21238,7 +17941,7 @@
         <v>0.99685897435897397</v>
       </c>
       <c r="F237" s="5">
-        <v>0.99685897435897397</v>
+        <v>0.99681623931623897</v>
       </c>
       <c r="G237" s="8">
         <v>1</v>
@@ -21312,7 +18015,7 @@
         <v>0.99688034188034103</v>
       </c>
       <c r="F238" s="5">
-        <v>0.99688034188034103</v>
+        <v>0.99683760683760603</v>
       </c>
       <c r="G238" s="11">
         <v>1</v>
@@ -21386,7 +18089,7 @@
         <v>0.996912393162393</v>
       </c>
       <c r="F239" s="5">
-        <v>0.996912393162393</v>
+        <v>0.99685897435897397</v>
       </c>
       <c r="G239" s="8">
         <v>1</v>
@@ -21460,7 +18163,7 @@
         <v>0.99693376068376005</v>
       </c>
       <c r="F240" s="5">
-        <v>0.99693376068376005</v>
+        <v>0.99688034188034103</v>
       </c>
       <c r="G240" s="11">
         <v>1</v>
@@ -21534,7 +18237,7 @@
         <v>0.99695512820512799</v>
       </c>
       <c r="F241" s="5">
-        <v>0.99695512820512799</v>
+        <v>0.996912393162393</v>
       </c>
       <c r="G241" s="8">
         <v>1</v>
@@ -21608,7 +18311,7 @@
         <v>0.99697649572649505</v>
       </c>
       <c r="F242" s="5">
-        <v>0.99697649572649505</v>
+        <v>0.99693376068376005</v>
       </c>
       <c r="G242" s="11">
         <v>1</v>
@@ -21682,7 +18385,7 @@
         <v>0.99701923076923005</v>
       </c>
       <c r="F243" s="5">
-        <v>0.99701923076923005</v>
+        <v>0.99695512820512799</v>
       </c>
       <c r="G243" s="8">
         <v>1</v>
@@ -21756,7 +18459,7 @@
         <v>0.99702991452991396</v>
       </c>
       <c r="F244" s="5">
-        <v>0.99702991452991396</v>
+        <v>0.99696581196581202</v>
       </c>
       <c r="G244" s="11">
         <v>1</v>
@@ -21830,7 +18533,7 @@
         <v>0.99705128205128202</v>
       </c>
       <c r="F245" s="5">
-        <v>0.99705128205128202</v>
+        <v>0.99701923076923005</v>
       </c>
       <c r="G245" s="8">
         <v>1</v>
@@ -21904,7 +18607,7 @@
         <v>0.99708333333333299</v>
       </c>
       <c r="F246" s="5">
-        <v>0.99708333333333299</v>
+        <v>0.99702991452991396</v>
       </c>
       <c r="G246" s="11">
         <v>1</v>
@@ -21978,7 +18681,7 @@
         <v>0.99712606837606799</v>
       </c>
       <c r="F247" s="5">
-        <v>0.99712606837606799</v>
+        <v>0.99705128205128202</v>
       </c>
       <c r="G247" s="8">
         <v>1</v>
@@ -22052,7 +18755,7 @@
         <v>0.99716880341880298</v>
       </c>
       <c r="F248" s="5">
-        <v>0.99716880341880298</v>
+        <v>0.99708333333333299</v>
       </c>
       <c r="G248" s="11">
         <v>1</v>
@@ -22126,7 +18829,7 @@
         <v>0.99721153846153798</v>
       </c>
       <c r="F249" s="5">
-        <v>0.99721153846153798</v>
+        <v>0.99712606837606799</v>
       </c>
       <c r="G249" s="8">
         <v>1</v>
@@ -22200,7 +18903,7 @@
         <v>0.99724358974358895</v>
       </c>
       <c r="F250" s="5">
-        <v>0.99724358974358895</v>
+        <v>0.99716880341880298</v>
       </c>
       <c r="G250" s="11">
         <v>1</v>
@@ -22274,7 +18977,7 @@
         <v>0.99729700854700798</v>
       </c>
       <c r="F251" s="5">
-        <v>0.99729700854700798</v>
+        <v>0.99721153846153798</v>
       </c>
       <c r="G251" s="8">
         <v>1</v>
@@ -22348,7 +19051,7 @@
         <v>0.99732905982905895</v>
       </c>
       <c r="F252" s="5">
-        <v>0.99732905982905895</v>
+        <v>0.99725427350427298</v>
       </c>
       <c r="G252" s="11">
         <v>1</v>
@@ -22422,7 +19125,7 @@
         <v>0.997350427350427</v>
       </c>
       <c r="F253" s="5">
-        <v>0.997350427350427</v>
+        <v>0.99730769230769201</v>
       </c>
       <c r="G253" s="8">
         <v>1</v>
@@ -22496,7 +19199,7 @@
         <v>0.99738247863247798</v>
       </c>
       <c r="F254" s="5">
-        <v>0.99738247863247798</v>
+        <v>0.99733974358974298</v>
       </c>
       <c r="G254" s="11">
         <v>1</v>
@@ -22570,7 +19273,7 @@
         <v>0.99742521367521297</v>
       </c>
       <c r="F255" s="5">
-        <v>0.99742521367521297</v>
+        <v>0.99738247863247798</v>
       </c>
       <c r="G255" s="8">
         <v>1</v>
@@ -22644,7 +19347,7 @@
         <v>0.99751068376068297</v>
       </c>
       <c r="F256" s="5">
-        <v>0.99751068376068297</v>
+        <v>0.99748931623931603</v>
       </c>
       <c r="G256" s="11">
         <v>1</v>
@@ -22718,7 +19421,7 @@
         <v>0.99795940170940101</v>
       </c>
       <c r="F257" s="5">
-        <v>0.99795940170940101</v>
+        <v>0.99790598290598198</v>
       </c>
       <c r="G257" s="8">
         <v>1</v>
@@ -22954,7 +19657,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
